--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>797484.163426758</v>
+        <v>798578.3685094775</v>
       </c>
     </row>
     <row r="7">
@@ -656,73 +656,73 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>91.87278529632137</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="G2" t="n">
-        <v>98.74883103803279</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H3" t="n">
-        <v>102.3448132540521</v>
+        <v>8.037790645995742</v>
       </c>
       <c r="I3" t="n">
         <v>54.13711731454486</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>36.57392307749219</v>
       </c>
       <c r="S3" t="n">
-        <v>54.37956059435953</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>51.82194179032392</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>112.1126601249237</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>66.09050661104446</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="J4" t="n">
         <v>32.65832442698833</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.26856482072056</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>106.3067152763445</v>
+      </c>
+      <c r="G5" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="G5" t="n">
-        <v>106.3067152763445</v>
-      </c>
       <c r="H5" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>51.64041629783932</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>32.07159191921401</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>95.35828607663996</v>
+        <v>118.820153604022</v>
       </c>
       <c r="Y6" t="n">
         <v>144.6751566710423</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>127.8026899798254</v>
       </c>
       <c r="J7" t="n">
         <v>28.36014035361794</v>
@@ -1102,13 +1102,13 @@
         <v>135.9554396389582</v>
       </c>
       <c r="S7" t="n">
+        <v>115.4840822102163</v>
+      </c>
+      <c r="T7" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="T7" t="n">
-        <v>98.61161551899944</v>
-      </c>
       <c r="U7" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5255871663199</v>
+        <v>28.33592091243845</v>
       </c>
       <c r="G8" t="n">
         <v>187.5255871663199</v>
@@ -1151,7 +1151,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>153.8072380324131</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1221,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>58.00834284278438</v>
       </c>
       <c r="H9" t="n">
         <v>100.8417573507397</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>77.75788252862071</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>187.5255871663199</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="10">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>5.57332708602759</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>96.41014564717584</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>3.343082173845801</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>375.6649990889255</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>113.8815788166962</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>310.2259668600466</v>
       </c>
       <c r="I11" t="n">
-        <v>35.49140150935936</v>
+        <v>100.3706073835471</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>143.9393584045309</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.5937842564866</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1171742728596</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>18.05629743923527</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.815431575626</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>36.7849141560678</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5.282485126995198</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>143.2996515274307</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5607157246620681</v>
+        <v>194.0054714360924</v>
       </c>
       <c r="U12" t="n">
         <v>225.8408501344232</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>101.8604463847069</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.7098837335496</v>
@@ -1549,7 +1549,7 @@
         <v>116.9244355890811</v>
       </c>
       <c r="J13" t="n">
-        <v>2.785719435595482</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>119.6906735517087</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>201.6905951919645</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>129.3307837335561</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>143.9393584045309</v>
       </c>
       <c r="T14" t="n">
         <v>210.5937842564866</v>
       </c>
       <c r="U14" t="n">
-        <v>200.5626163417983</v>
+        <v>251.1171742728596</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>175.2371843428769</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>142.0831556026594</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1698,13 +1698,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>135.815431575626</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>97.47735448271879</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>12.45133453864694</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>5.282485126995198</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>143.2996515274307</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>194.0054714360924</v>
       </c>
       <c r="U15" t="n">
         <v>225.8408501344232</v>
@@ -1752,7 +1752,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>79.5834150702173</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>150.8370677696109</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>116.9244355890811</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.785719435595482</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>119.6906735517087</v>
       </c>
       <c r="S16" t="n">
         <v>201.6905951919645</v>
@@ -1822,10 +1822,10 @@
         <v>286.249151413314</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>217.6836680923856</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>143.9393584045309</v>
       </c>
       <c r="T17" t="n">
         <v>210.5937842564866</v>
       </c>
       <c r="U17" t="n">
-        <v>200.5626163417983</v>
+        <v>251.1171742728596</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>175.2371843428769</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.47735448271879</v>
       </c>
       <c r="I18" t="n">
         <v>36.78491415606779</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5.282485126995184</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>143.2996515274307</v>
       </c>
       <c r="T18" t="n">
         <v>194.0054714360924</v>
@@ -1980,16 +1980,16 @@
         <v>225.8408501344232</v>
       </c>
       <c r="V18" t="n">
-        <v>66.96599900259217</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>70.20393121374656</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>136.7384288084253</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>119.6906735517087</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>201.6905951919645</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>222.4718172127606</v>
       </c>
       <c r="U19" t="n">
         <v>286.249151413314</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>97.99299454067706</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>375.6649990889255</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>211.1235902255135</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>100.3706073835471</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>143.9393584045309</v>
+        <v>130.6840542589569</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.5937842564866</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1171742728596</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.815431575626</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>36.78491415606779</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>5.282485126995184</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>143.2996515274307</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>194.0054714360924</v>
       </c>
       <c r="U21" t="n">
         <v>225.8408501344232</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>39.43774580383325</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>18.34350838565857</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.785719435595468</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>119.6906735517087</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>201.6905951919645</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>222.4718172127606</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.249151413314</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>95.20727510508159</v>
+        <v>240.2442921943434</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>330.8857311975256</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>375.6649990889255</v>
       </c>
       <c r="F23" t="n">
         <v>375.6649990889255</v>
@@ -2333,7 +2333,7 @@
         <v>375.6649990889255</v>
       </c>
       <c r="H23" t="n">
-        <v>310.2259668600466</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>26.59366274793537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,25 +2397,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>16.02377127672176</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.815431575626</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>14.58280408875172</v>
       </c>
       <c r="I24" t="n">
-        <v>36.78491415606779</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>5.282485126995184</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>143.2996515274307</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>194.0054714360924</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7098837335496</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2640511433882767</v>
+        <v>150.8370677696109</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>66.15825708575238</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>119.6906735517087</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>201.6905951919645</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>222.4718172127606</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,76 +2552,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>375.6649990889255</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>336.819629607982</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>369.731100678469</v>
+      </c>
+      <c r="Y26" t="n">
         <v>375.6649990889255</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>375.6649990889255</v>
-      </c>
-      <c r="H26" t="n">
-        <v>310.2259668600466</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>210.5937842564866</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>185.730979169918</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>142.0831556026599</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,16 +2643,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>135.815431575626</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>97.47735448271879</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>17.81871674813326</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,13 +2685,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>194.0054714360924</v>
       </c>
       <c r="U27" t="n">
         <v>225.8408501344232</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2719,22 +2719,22 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2.241671971549419</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.7098837335496</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>150.8370677696109</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>116.9244355890811</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.785719435595468</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>119.6906735517087</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>222.4718172127606</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.249151413314</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>129.6134267714829</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2795,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>89.70436138417763</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>375.6649990889255</v>
@@ -2810,7 +2810,7 @@
         <v>310.2259668600466</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>100.3706073835471</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>143.9393584045309</v>
+        <v>106.3423292546133</v>
       </c>
       <c r="T29" t="n">
         <v>210.5937842564866</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2868,28 +2868,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>135.815431575626</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>97.47735448271879</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.85897973313111</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>5.282485126995184</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>194.0054714360924</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.8408501344232</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,10 +2934,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>61.56960325362473</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>12.18292264509381</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,7 +2962,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7098837335496</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>201.6905951919645</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>222.4718172127606</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2831113404609</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3029,13 +3029,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>330.8857311975256</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>375.6649990889255</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>375.6649990889255</v>
@@ -3080,13 +3080,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>127.6812975434564</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1171742728596</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3117,16 +3117,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>84.13083216482015</v>
+        <v>135.815431575626</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>36.04677534523547</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>119.6906735517087</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>201.6905951919645</v>
       </c>
       <c r="T34" t="n">
         <v>222.4718172127606</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.249151413314</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>58.27562719500464</v>
       </c>
       <c r="W34" t="n">
-        <v>166.3879479997953</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>375.6649990889256</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3281,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>21.51176343726985</v>
       </c>
       <c r="I35" t="n">
-        <v>2.626719948355336</v>
+        <v>100.3706073835471</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>143.9393584045309</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.5937842564866</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1171742728596</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3357,13 +3357,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.815431575626</v>
       </c>
       <c r="H36" t="n">
-        <v>97.47735448271879</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>4.506017361762148</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,13 +3396,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>194.0054714360924</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>14.58280408875237</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3411,7 +3411,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3424,16 +3424,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>58.10473515188114</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3475,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>222.4718172127606</v>
+        <v>204.4860143909091</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.249151413314</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>375.6649990889255</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>166.3394455814528</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>310.2259668600466</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>251.1171742728596</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>106.8343117630304</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>375.6649990889255</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>58.52670687253478</v>
       </c>
       <c r="C39" t="n">
-        <v>169.5554433888846</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3597,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>97.47735448271879</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>36.7849141560678</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>143.2996515274307</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3667,22 +3667,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>163.1664167432158</v>
+        <v>166.7098837335496</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>150.8370677696109</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>116.9244355890811</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2.785719435595482</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>119.6906735517087</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>201.6905951919645</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>129.7394892932418</v>
       </c>
       <c r="U40" t="n">
-        <v>286.249151413314</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>330.8857311975256</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>375.6649990889255</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>375.6649990889255</v>
       </c>
       <c r="G41" t="n">
         <v>375.6649990889255</v>
@@ -3791,19 +3791,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.5937842564866</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1171742728596</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>250.7736701675612</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3834,10 +3834,10 @@
         <v>135.815431575626</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>69.36568385783836</v>
       </c>
       <c r="I42" t="n">
-        <v>36.7849141560678</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>194.0054714360924</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8408501344232</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>158.2972344607538</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3898,28 +3898,28 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>34.63942688041483</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>23.23271894486324</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>150.8370677696109</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>116.9244355890811</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.785719435595482</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>201.6905951919645</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,73 +3977,73 @@
         <v>375.6649990889255</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>31.05187165539691</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>310.2259668600466</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>375.6649990889255</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>210.5937842564866</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>369.731100678469</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>126.2258453514954</v>
       </c>
     </row>
     <row r="45">
@@ -4059,22 +4059,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.815431575626</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>97.47735448271879</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>36.7849141560678</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>5.282485126995198</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>143.2996515274307</v>
@@ -4110,19 +4110,19 @@
         <v>194.0054714360924</v>
       </c>
       <c r="U45" t="n">
-        <v>143.3610785850278</v>
+        <v>224.6243542096522</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4141,22 +4141,22 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>104.467357956465</v>
       </c>
       <c r="H46" t="n">
-        <v>150.8370677696109</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>116.9244355890811</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.785719435595482</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>222.4718172127606</v>
       </c>
       <c r="U46" t="n">
-        <v>286.249151413314</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>214.6765362410376</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4316,13 +4316,13 @@
         <v>221.9604180251015</v>
       </c>
       <c r="F2" t="n">
-        <v>108.7153067878048</v>
+        <v>215.014917275898</v>
       </c>
       <c r="G2" t="n">
-        <v>8.969012809993897</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="H2" t="n">
-        <v>8.969012809993897</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="I2" t="n">
         <v>8.969012809993897</v>
@@ -4358,22 +4358,22 @@
         <v>448.4506404996948</v>
       </c>
       <c r="T2" t="n">
-        <v>448.4506404996948</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="U2" t="n">
-        <v>448.4506404996948</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="V2" t="n">
-        <v>448.4506404996948</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="W2" t="n">
-        <v>448.4506404996948</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="X2" t="n">
-        <v>335.2055292623982</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="Y2" t="n">
-        <v>335.2055292623982</v>
+        <v>221.9604180251015</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167.0315689398898</v>
+        <v>411.5072838557633</v>
       </c>
       <c r="C3" t="n">
-        <v>167.0315689398898</v>
+        <v>411.5072838557633</v>
       </c>
       <c r="D3" t="n">
-        <v>167.0315689398898</v>
+        <v>411.5072838557633</v>
       </c>
       <c r="E3" t="n">
-        <v>167.0315689398898</v>
+        <v>298.2621726184666</v>
       </c>
       <c r="F3" t="n">
-        <v>167.0315689398898</v>
+        <v>185.01706138117</v>
       </c>
       <c r="G3" t="n">
-        <v>167.0315689398898</v>
+        <v>71.7719501438733</v>
       </c>
       <c r="H3" t="n">
         <v>63.65296969337255</v>
@@ -4410,19 +4410,19 @@
         <v>8.969012809993897</v>
       </c>
       <c r="K3" t="n">
-        <v>8.969012809993897</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L3" t="n">
-        <v>91.93611230387164</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M3" t="n">
-        <v>202.9276458275461</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N3" t="n">
-        <v>313.9191793512206</v>
+        <v>341.1718347265722</v>
       </c>
       <c r="O3" t="n">
-        <v>413.9712807824706</v>
+        <v>387.4830745953196</v>
       </c>
       <c r="P3" t="n">
         <v>448.4506404996948</v>
@@ -4431,28 +4431,28 @@
         <v>448.4506404996948</v>
       </c>
       <c r="R3" t="n">
-        <v>448.4506404996948</v>
+        <v>411.5072838557633</v>
       </c>
       <c r="S3" t="n">
-        <v>393.5217914144832</v>
+        <v>411.5072838557633</v>
       </c>
       <c r="T3" t="n">
-        <v>393.5217914144832</v>
+        <v>411.5072838557633</v>
       </c>
       <c r="U3" t="n">
-        <v>393.5217914144832</v>
+        <v>411.5072838557633</v>
       </c>
       <c r="V3" t="n">
-        <v>280.2766801771865</v>
+        <v>411.5072838557633</v>
       </c>
       <c r="W3" t="n">
-        <v>280.2766801771865</v>
+        <v>411.5072838557633</v>
       </c>
       <c r="X3" t="n">
-        <v>280.2766801771865</v>
+        <v>411.5072838557633</v>
       </c>
       <c r="Y3" t="n">
-        <v>280.2766801771865</v>
+        <v>411.5072838557633</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320.7928375242966</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="C4" t="n">
-        <v>207.5477262869999</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="D4" t="n">
+        <v>448.4506404996948</v>
+      </c>
+      <c r="E4" t="n">
+        <v>448.4506404996948</v>
+      </c>
+      <c r="F4" t="n">
+        <v>335.2055292623982</v>
+      </c>
+      <c r="G4" t="n">
+        <v>268.4474417764947</v>
+      </c>
+      <c r="H4" t="n">
         <v>155.202330539198</v>
-      </c>
-      <c r="E4" t="n">
-        <v>155.202330539198</v>
-      </c>
-      <c r="F4" t="n">
-        <v>41.9572193019013</v>
-      </c>
-      <c r="G4" t="n">
-        <v>41.9572193019013</v>
-      </c>
-      <c r="H4" t="n">
-        <v>41.9572193019013</v>
       </c>
       <c r="I4" t="n">
         <v>41.9572193019013</v>
@@ -4489,13 +4489,13 @@
         <v>8.969012809993897</v>
       </c>
       <c r="K4" t="n">
-        <v>85.67486684193852</v>
+        <v>15.36860208584622</v>
       </c>
       <c r="L4" t="n">
-        <v>196.666400365613</v>
+        <v>15.36860208584622</v>
       </c>
       <c r="M4" t="n">
-        <v>233.6896716697572</v>
+        <v>126.3601356095207</v>
       </c>
       <c r="N4" t="n">
         <v>237.3516691331951</v>
@@ -4507,31 +4507,31 @@
         <v>448.4506404996948</v>
       </c>
       <c r="Q4" t="n">
-        <v>434.0379487615933</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R4" t="n">
-        <v>320.7928375242966</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="S4" t="n">
-        <v>320.7928375242966</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="T4" t="n">
-        <v>320.7928375242966</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="U4" t="n">
-        <v>320.7928375242966</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="V4" t="n">
-        <v>320.7928375242966</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="W4" t="n">
-        <v>320.7928375242966</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="X4" t="n">
-        <v>320.7928375242966</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Y4" t="n">
-        <v>320.7928375242966</v>
+        <v>448.4506404996948</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>411.2275767947228</v>
+        <v>265.0910549047811</v>
       </c>
       <c r="C5" t="n">
-        <v>411.2275767947228</v>
+        <v>265.0910549047811</v>
       </c>
       <c r="D5" t="n">
-        <v>411.2275767947228</v>
+        <v>265.0910549047811</v>
       </c>
       <c r="E5" t="n">
-        <v>411.2275767947228</v>
+        <v>265.0910549047811</v>
       </c>
       <c r="F5" t="n">
-        <v>265.0910549047811</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="G5" t="n">
-        <v>157.7105344236251</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H5" t="n">
         <v>11.57401253368338</v>
@@ -4595,22 +4595,22 @@
         <v>557.3640986846646</v>
       </c>
       <c r="T5" t="n">
-        <v>557.3640986846646</v>
+        <v>411.2275767947228</v>
       </c>
       <c r="U5" t="n">
-        <v>557.3640986846646</v>
+        <v>265.0910549047811</v>
       </c>
       <c r="V5" t="n">
-        <v>557.3640986846646</v>
+        <v>265.0910549047811</v>
       </c>
       <c r="W5" t="n">
-        <v>557.3640986846646</v>
+        <v>265.0910549047811</v>
       </c>
       <c r="X5" t="n">
-        <v>411.2275767947228</v>
+        <v>265.0910549047811</v>
       </c>
       <c r="Y5" t="n">
-        <v>411.2275767947228</v>
+        <v>265.0910549047811</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.57401253368338</v>
+        <v>166.4072257285058</v>
       </c>
       <c r="C6" t="n">
-        <v>11.57401253368338</v>
+        <v>166.4072257285058</v>
       </c>
       <c r="D6" t="n">
-        <v>11.57401253368338</v>
+        <v>166.4072257285058</v>
       </c>
       <c r="E6" t="n">
-        <v>11.57401253368338</v>
+        <v>166.4072257285058</v>
       </c>
       <c r="F6" t="n">
-        <v>11.57401253368338</v>
+        <v>166.4072257285058</v>
       </c>
       <c r="G6" t="n">
-        <v>11.57401253368338</v>
+        <v>166.4072257285058</v>
       </c>
       <c r="H6" t="n">
-        <v>11.57401253368338</v>
+        <v>63.73604919816754</v>
       </c>
       <c r="I6" t="n">
         <v>11.57401253368338</v>
@@ -4653,10 +4653,10 @@
         <v>148.9740250987618</v>
       </c>
       <c r="M6" t="n">
-        <v>283.3396581397943</v>
+        <v>243.6629351576685</v>
       </c>
       <c r="N6" t="n">
-        <v>426.5680632441262</v>
+        <v>386.8913402620004</v>
       </c>
       <c r="O6" t="n">
         <v>504.0242257254406</v>
@@ -4668,28 +4668,28 @@
         <v>578.700626684169</v>
       </c>
       <c r="R6" t="n">
-        <v>546.3050792910236</v>
+        <v>578.700626684169</v>
       </c>
       <c r="S6" t="n">
-        <v>546.3050792910236</v>
+        <v>578.700626684169</v>
       </c>
       <c r="T6" t="n">
-        <v>546.3050792910236</v>
+        <v>578.700626684169</v>
       </c>
       <c r="U6" t="n">
-        <v>400.1685574010819</v>
+        <v>578.700626684169</v>
       </c>
       <c r="V6" t="n">
-        <v>400.1685574010819</v>
+        <v>578.700626684169</v>
       </c>
       <c r="W6" t="n">
-        <v>400.1685574010819</v>
+        <v>578.700626684169</v>
       </c>
       <c r="X6" t="n">
-        <v>303.8470563135668</v>
+        <v>458.6802695083892</v>
       </c>
       <c r="Y6" t="n">
-        <v>157.7105344236251</v>
+        <v>312.5437476184475</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.22061895147928</v>
+        <v>169.3142451937272</v>
       </c>
       <c r="C7" t="n">
-        <v>40.22061895147928</v>
+        <v>169.3142451937272</v>
       </c>
       <c r="D7" t="n">
-        <v>40.22061895147928</v>
+        <v>169.3142451937272</v>
       </c>
       <c r="E7" t="n">
-        <v>40.22061895147928</v>
+        <v>169.3142451937272</v>
       </c>
       <c r="F7" t="n">
-        <v>40.22061895147928</v>
+        <v>169.3142451937272</v>
       </c>
       <c r="G7" t="n">
-        <v>40.22061895147928</v>
+        <v>169.3142451937272</v>
       </c>
       <c r="H7" t="n">
-        <v>40.22061895147928</v>
+        <v>169.3142451937272</v>
       </c>
       <c r="I7" t="n">
         <v>40.22061895147928</v>
@@ -4750,25 +4750,25 @@
         <v>432.1013551747965</v>
       </c>
       <c r="S7" t="n">
-        <v>285.9648332848548</v>
+        <v>315.4507670836689</v>
       </c>
       <c r="T7" t="n">
-        <v>186.357140841421</v>
+        <v>169.3142451937272</v>
       </c>
       <c r="U7" t="n">
-        <v>40.22061895147928</v>
+        <v>169.3142451937272</v>
       </c>
       <c r="V7" t="n">
-        <v>40.22061895147928</v>
+        <v>169.3142451937272</v>
       </c>
       <c r="W7" t="n">
-        <v>40.22061895147928</v>
+        <v>169.3142451937272</v>
       </c>
       <c r="X7" t="n">
-        <v>40.22061895147928</v>
+        <v>169.3142451937272</v>
       </c>
       <c r="Y7" t="n">
-        <v>40.22061895147928</v>
+        <v>169.3142451937272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>583.26140202276</v>
+        <v>738.622248520147</v>
       </c>
       <c r="C8" t="n">
-        <v>583.26140202276</v>
+        <v>738.622248520147</v>
       </c>
       <c r="D8" t="n">
-        <v>583.26140202276</v>
+        <v>738.622248520147</v>
       </c>
       <c r="E8" t="n">
-        <v>583.26140202276</v>
+        <v>549.2024635036622</v>
       </c>
       <c r="F8" t="n">
-        <v>393.8416170062752</v>
+        <v>520.5803211678658</v>
       </c>
       <c r="G8" t="n">
-        <v>204.4218319897904</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I8" t="n">
         <v>15.00204697330559</v>
@@ -4841,13 +4841,13 @@
         <v>738.622248520147</v>
       </c>
       <c r="W8" t="n">
-        <v>583.26140202276</v>
+        <v>738.622248520147</v>
       </c>
       <c r="X8" t="n">
-        <v>583.26140202276</v>
+        <v>738.622248520147</v>
       </c>
       <c r="Y8" t="n">
-        <v>583.26140202276</v>
+        <v>738.622248520147</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>303.6731161369638</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="C9" t="n">
-        <v>303.6731161369638</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="D9" t="n">
-        <v>303.6731161369638</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="E9" t="n">
-        <v>303.6731161369638</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="F9" t="n">
-        <v>303.6731161369638</v>
+        <v>224.7282206591952</v>
       </c>
       <c r="G9" t="n">
         <v>166.133934959413</v>
@@ -4905,28 +4905,28 @@
         <v>750.1023486652797</v>
       </c>
       <c r="R9" t="n">
-        <v>722.9192922843278</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S9" t="n">
-        <v>571.636216838924</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T9" t="n">
-        <v>571.636216838924</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U9" t="n">
-        <v>571.636216838924</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V9" t="n">
-        <v>493.0929011534486</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="W9" t="n">
-        <v>303.6731161369638</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X9" t="n">
-        <v>303.6731161369638</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y9" t="n">
-        <v>303.6731161369638</v>
+        <v>371.2627786323102</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44.30213322740502</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="C10" t="n">
-        <v>38.67250990818523</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="D10" t="n">
-        <v>38.67250990818523</v>
+        <v>407.1890735558069</v>
       </c>
       <c r="E10" t="n">
-        <v>38.67250990818523</v>
+        <v>259.2759799734138</v>
       </c>
       <c r="F10" t="n">
-        <v>38.67250990818523</v>
+        <v>112.3860324755034</v>
       </c>
       <c r="G10" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
         <v>15.00204697330559</v>
@@ -4969,10 +4969,10 @@
         <v>187.8896250884407</v>
       </c>
       <c r="M10" t="n">
-        <v>373.5399563830974</v>
+        <v>285.983849229595</v>
       </c>
       <c r="N10" t="n">
-        <v>559.1902876777541</v>
+        <v>471.6341805242517</v>
       </c>
       <c r="O10" t="n">
         <v>634.3723839608019</v>
@@ -4984,28 +4984,28 @@
         <v>746.7254979846274</v>
       </c>
       <c r="R10" t="n">
-        <v>612.5614882768593</v>
+        <v>746.7254979846274</v>
       </c>
       <c r="S10" t="n">
-        <v>423.1417032603746</v>
+        <v>746.7254979846274</v>
       </c>
       <c r="T10" t="n">
-        <v>423.1417032603746</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="U10" t="n">
-        <v>423.1417032603746</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="V10" t="n">
-        <v>233.7219182438898</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="W10" t="n">
-        <v>233.7219182438898</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="X10" t="n">
-        <v>44.30213322740502</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="Y10" t="n">
-        <v>44.30213322740502</v>
+        <v>557.3057129681426</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>65.90310044161845</v>
+        <v>559.8291121092251</v>
       </c>
       <c r="C11" t="n">
-        <v>65.90310044161845</v>
+        <v>559.8291121092251</v>
       </c>
       <c r="D11" t="n">
-        <v>65.90310044161845</v>
+        <v>559.8291121092251</v>
       </c>
       <c r="E11" t="n">
-        <v>65.90310044161845</v>
+        <v>559.8291121092251</v>
       </c>
       <c r="F11" t="n">
-        <v>65.90310044161845</v>
+        <v>559.8291121092251</v>
       </c>
       <c r="G11" t="n">
-        <v>65.90310044161845</v>
+        <v>444.7972143145824</v>
       </c>
       <c r="H11" t="n">
-        <v>65.90310044161845</v>
+        <v>131.4376518296869</v>
       </c>
       <c r="I11" t="n">
         <v>30.05319992711404</v>
@@ -5066,25 +5066,25 @@
         <v>1502.659996355702</v>
       </c>
       <c r="S11" t="n">
-        <v>1502.659996355702</v>
+        <v>1357.266705037994</v>
       </c>
       <c r="T11" t="n">
-        <v>1502.659996355702</v>
+        <v>1144.545710839523</v>
       </c>
       <c r="U11" t="n">
-        <v>1502.659996355702</v>
+        <v>890.8919994527957</v>
       </c>
       <c r="V11" t="n">
-        <v>1171.597109012131</v>
+        <v>559.8291121092251</v>
       </c>
       <c r="W11" t="n">
-        <v>818.828453742017</v>
+        <v>559.8291121092251</v>
       </c>
       <c r="X11" t="n">
-        <v>445.3626954809371</v>
+        <v>559.8291121092251</v>
       </c>
       <c r="Y11" t="n">
-        <v>445.3626954809371</v>
+        <v>559.8291121092251</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>363.6344384999371</v>
+        <v>499.9751968426074</v>
       </c>
       <c r="C12" t="n">
-        <v>363.6344384999371</v>
+        <v>325.5221675614803</v>
       </c>
       <c r="D12" t="n">
-        <v>363.6344384999371</v>
+        <v>176.5877579002291</v>
       </c>
       <c r="E12" t="n">
-        <v>204.3969834944816</v>
+        <v>176.5877579002291</v>
       </c>
       <c r="F12" t="n">
-        <v>204.3969834944816</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="G12" t="n">
-        <v>67.20967887263707</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="H12" t="n">
-        <v>67.20967887263707</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="I12" t="n">
         <v>30.05319992711404</v>
@@ -5142,28 +5142,28 @@
         <v>1502.659996355702</v>
       </c>
       <c r="R12" t="n">
-        <v>1497.32415279308</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="S12" t="n">
-        <v>1497.32415279308</v>
+        <v>1357.912873600721</v>
       </c>
       <c r="T12" t="n">
-        <v>1496.75777327322</v>
+        <v>1161.947750938002</v>
       </c>
       <c r="U12" t="n">
-        <v>1268.635702430368</v>
+        <v>933.82568009515</v>
       </c>
       <c r="V12" t="n">
-        <v>1033.483594198625</v>
+        <v>933.82568009515</v>
       </c>
       <c r="W12" t="n">
-        <v>779.2462374704238</v>
+        <v>933.82568009515</v>
       </c>
       <c r="X12" t="n">
-        <v>571.394737264891</v>
+        <v>725.9741798896172</v>
       </c>
       <c r="Y12" t="n">
-        <v>363.6344384999371</v>
+        <v>518.2138811246632</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1040.559154525413</v>
+        <v>766.9429198837032</v>
       </c>
       <c r="C13" t="n">
-        <v>871.6229715975057</v>
+        <v>766.9429198837032</v>
       </c>
       <c r="D13" t="n">
-        <v>721.50633218517</v>
+        <v>616.8262804713675</v>
       </c>
       <c r="E13" t="n">
-        <v>618.6169924026377</v>
+        <v>468.9131868889743</v>
       </c>
       <c r="F13" t="n">
-        <v>471.7270449047273</v>
+        <v>468.9131868889743</v>
       </c>
       <c r="G13" t="n">
-        <v>303.3332229516469</v>
+        <v>300.5193649358939</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9725484368884</v>
+        <v>148.1586904211354</v>
       </c>
       <c r="I13" t="n">
-        <v>32.86705794286705</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="J13" t="n">
         <v>30.05319992711404</v>
@@ -5221,28 +5221,28 @@
         <v>1222.207619355652</v>
       </c>
       <c r="R13" t="n">
-        <v>1222.207619355652</v>
+        <v>1101.307949101401</v>
       </c>
       <c r="S13" t="n">
-        <v>1222.207619355652</v>
+        <v>897.5800751701236</v>
       </c>
       <c r="T13" t="n">
-        <v>1222.207619355652</v>
+        <v>766.9429198837032</v>
       </c>
       <c r="U13" t="n">
-        <v>1222.207619355652</v>
+        <v>766.9429198837032</v>
       </c>
       <c r="V13" t="n">
-        <v>1222.207619355652</v>
+        <v>766.9429198837032</v>
       </c>
       <c r="W13" t="n">
-        <v>1222.207619355652</v>
+        <v>766.9429198837032</v>
       </c>
       <c r="X13" t="n">
-        <v>1222.207619355652</v>
+        <v>766.9429198837032</v>
       </c>
       <c r="Y13" t="n">
-        <v>1222.207619355652</v>
+        <v>766.9429198837032</v>
       </c>
     </row>
     <row r="14">
@@ -5303,19 +5303,19 @@
         <v>1502.659996355702</v>
       </c>
       <c r="S14" t="n">
-        <v>1502.659996355702</v>
+        <v>1357.266705037994</v>
       </c>
       <c r="T14" t="n">
-        <v>1289.939002157231</v>
+        <v>1144.545710839523</v>
       </c>
       <c r="U14" t="n">
-        <v>1087.350500801879</v>
+        <v>890.8919994527957</v>
       </c>
       <c r="V14" t="n">
-        <v>756.287613458308</v>
+        <v>559.8291121092251</v>
       </c>
       <c r="W14" t="n">
-        <v>403.5189581881939</v>
+        <v>207.0604568391109</v>
       </c>
       <c r="X14" t="n">
         <v>30.05319992711404</v>
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>427.2139940297711</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="C15" t="n">
-        <v>427.2139940297711</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="D15" t="n">
-        <v>278.2795843685199</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="E15" t="n">
-        <v>278.2795843685199</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="F15" t="n">
-        <v>278.2795843685199</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="G15" t="n">
-        <v>141.0922797466754</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="H15" t="n">
-        <v>42.6303055217069</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="I15" t="n">
         <v>30.05319992711404</v>
       </c>
       <c r="J15" t="n">
-        <v>172.2409461182348</v>
+        <v>47.41082113123008</v>
       </c>
       <c r="K15" t="n">
-        <v>280.0627101622226</v>
+        <v>167.8213700720003</v>
       </c>
       <c r="L15" t="n">
-        <v>567.1000938749169</v>
+        <v>359.1235790164262</v>
       </c>
       <c r="M15" t="n">
-        <v>809.6976167430626</v>
+        <v>601.7211018845719</v>
       </c>
       <c r="N15" t="n">
-        <v>1073.124619085817</v>
+        <v>865.148104227326</v>
       </c>
       <c r="O15" t="n">
-        <v>1291.889066388471</v>
+        <v>1083.912551529981</v>
       </c>
       <c r="P15" t="n">
-        <v>1448.133755719934</v>
+        <v>1240.157240861443</v>
       </c>
       <c r="Q15" t="n">
         <v>1502.659996355702</v>
       </c>
       <c r="R15" t="n">
-        <v>1497.32415279308</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="S15" t="n">
-        <v>1352.5770300381</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="T15" t="n">
-        <v>1352.5770300381</v>
+        <v>1306.694873692982</v>
       </c>
       <c r="U15" t="n">
-        <v>1124.454959195248</v>
+        <v>1078.57280285013</v>
       </c>
       <c r="V15" t="n">
-        <v>889.3028509635055</v>
+        <v>843.4206946183876</v>
       </c>
       <c r="W15" t="n">
-        <v>635.065494235304</v>
+        <v>589.1833378901861</v>
       </c>
       <c r="X15" t="n">
-        <v>427.2139940297711</v>
+        <v>381.3318376846532</v>
       </c>
       <c r="Y15" t="n">
-        <v>427.2139940297711</v>
+        <v>173.5715389196993</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.05319992711404</v>
+        <v>383.7205109013614</v>
       </c>
       <c r="C16" t="n">
-        <v>30.05319992711404</v>
+        <v>383.7205109013614</v>
       </c>
       <c r="D16" t="n">
-        <v>30.05319992711404</v>
+        <v>383.7205109013614</v>
       </c>
       <c r="E16" t="n">
-        <v>30.05319992711404</v>
+        <v>383.7205109013614</v>
       </c>
       <c r="F16" t="n">
-        <v>30.05319992711404</v>
+        <v>383.7205109013614</v>
       </c>
       <c r="G16" t="n">
-        <v>30.05319992711404</v>
+        <v>303.3332229516469</v>
       </c>
       <c r="H16" t="n">
-        <v>30.05319992711404</v>
+        <v>150.9725484368884</v>
       </c>
       <c r="I16" t="n">
-        <v>30.05319992711404</v>
+        <v>32.86705794286705</v>
       </c>
       <c r="J16" t="n">
         <v>30.05319992711404</v>
@@ -5458,28 +5458,28 @@
         <v>1222.207619355652</v>
       </c>
       <c r="R16" t="n">
-        <v>1222.207619355652</v>
+        <v>1101.307949101401</v>
       </c>
       <c r="S16" t="n">
-        <v>1018.479745424375</v>
+        <v>897.5800751701236</v>
       </c>
       <c r="T16" t="n">
-        <v>793.7607381387581</v>
+        <v>672.8610678845068</v>
       </c>
       <c r="U16" t="n">
-        <v>504.6201811556127</v>
+        <v>383.7205109013614</v>
       </c>
       <c r="V16" t="n">
-        <v>249.9356929497258</v>
+        <v>383.7205109013614</v>
       </c>
       <c r="W16" t="n">
-        <v>30.05319992711404</v>
+        <v>383.7205109013614</v>
       </c>
       <c r="X16" t="n">
-        <v>30.05319992711404</v>
+        <v>383.7205109013614</v>
       </c>
       <c r="Y16" t="n">
-        <v>30.05319992711404</v>
+        <v>383.7205109013614</v>
       </c>
     </row>
     <row r="17">
@@ -5540,19 +5540,19 @@
         <v>1502.659996355702</v>
       </c>
       <c r="S17" t="n">
-        <v>1502.659996355702</v>
+        <v>1357.266705037994</v>
       </c>
       <c r="T17" t="n">
-        <v>1289.939002157231</v>
+        <v>1144.545710839523</v>
       </c>
       <c r="U17" t="n">
-        <v>1087.350500801879</v>
+        <v>890.8919994527957</v>
       </c>
       <c r="V17" t="n">
-        <v>756.287613458308</v>
+        <v>559.8291121092251</v>
       </c>
       <c r="W17" t="n">
-        <v>403.5189581881939</v>
+        <v>207.0604568391109</v>
       </c>
       <c r="X17" t="n">
         <v>30.05319992711404</v>
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>375.3815435393439</v>
+        <v>165.6716530976055</v>
       </c>
       <c r="C18" t="n">
-        <v>375.3815435393439</v>
+        <v>165.6716530976055</v>
       </c>
       <c r="D18" t="n">
-        <v>226.4471338780926</v>
+        <v>165.6716530976055</v>
       </c>
       <c r="E18" t="n">
-        <v>67.20967887263706</v>
+        <v>165.6716530976055</v>
       </c>
       <c r="F18" t="n">
-        <v>67.20967887263706</v>
+        <v>165.6716530976055</v>
       </c>
       <c r="G18" t="n">
-        <v>67.20967887263706</v>
+        <v>165.6716530976055</v>
       </c>
       <c r="H18" t="n">
         <v>67.20967887263706</v>
@@ -5592,52 +5592,52 @@
         <v>30.05319992711404</v>
       </c>
       <c r="J18" t="n">
-        <v>47.41082113123011</v>
+        <v>172.2409461182349</v>
       </c>
       <c r="K18" t="n">
-        <v>155.2325851752179</v>
+        <v>280.0627101622226</v>
       </c>
       <c r="L18" t="n">
-        <v>346.5347941196438</v>
+        <v>471.3649191066486</v>
       </c>
       <c r="M18" t="n">
-        <v>589.1323169877896</v>
+        <v>713.9624419747944</v>
       </c>
       <c r="N18" t="n">
-        <v>852.5593193305438</v>
+        <v>977.3894443175484</v>
       </c>
       <c r="O18" t="n">
-        <v>1083.912551529981</v>
+        <v>1196.153891620203</v>
       </c>
       <c r="P18" t="n">
-        <v>1240.157240861443</v>
+        <v>1352.398580951666</v>
       </c>
       <c r="Q18" t="n">
         <v>1502.659996355702</v>
       </c>
       <c r="R18" t="n">
-        <v>1497.32415279308</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="S18" t="n">
-        <v>1497.32415279308</v>
+        <v>1357.912873600721</v>
       </c>
       <c r="T18" t="n">
-        <v>1301.359030130361</v>
+        <v>1161.947750938002</v>
       </c>
       <c r="U18" t="n">
-        <v>1073.236959287509</v>
+        <v>933.82568009515</v>
       </c>
       <c r="V18" t="n">
-        <v>1005.594536052567</v>
+        <v>698.6735718634072</v>
       </c>
       <c r="W18" t="n">
-        <v>751.3571793243657</v>
+        <v>444.4362151352056</v>
       </c>
       <c r="X18" t="n">
-        <v>751.3571793243657</v>
+        <v>236.5847149296728</v>
       </c>
       <c r="Y18" t="n">
-        <v>543.5968805594118</v>
+        <v>165.6716530976055</v>
       </c>
     </row>
     <row r="19">
@@ -5695,28 +5695,28 @@
         <v>1222.207619355652</v>
       </c>
       <c r="R19" t="n">
-        <v>1222.207619355652</v>
+        <v>1101.307949101401</v>
       </c>
       <c r="S19" t="n">
-        <v>1222.207619355652</v>
+        <v>897.5800751701238</v>
       </c>
       <c r="T19" t="n">
-        <v>1222.207619355652</v>
+        <v>672.8610678845071</v>
       </c>
       <c r="U19" t="n">
-        <v>933.0670623725071</v>
+        <v>383.7205109013616</v>
       </c>
       <c r="V19" t="n">
-        <v>678.3825741666202</v>
+        <v>129.0360226954747</v>
       </c>
       <c r="W19" t="n">
-        <v>388.9654041296596</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="X19" t="n">
-        <v>388.9654041296596</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.1728249861295</v>
+        <v>30.05319992711404</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>344.6938035726297</v>
+        <v>399.0157168675257</v>
       </c>
       <c r="C20" t="n">
-        <v>344.6938035726297</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="D20" t="n">
-        <v>344.6938035726297</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="E20" t="n">
-        <v>344.6938035726297</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="F20" t="n">
-        <v>344.6938035726297</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="G20" t="n">
-        <v>344.6938035726297</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="H20" t="n">
-        <v>131.4376518296868</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="I20" t="n">
         <v>30.05319992711404</v>
@@ -5777,25 +5777,25 @@
         <v>1502.659996355702</v>
       </c>
       <c r="S20" t="n">
-        <v>1357.266705037994</v>
+        <v>1370.655901144634</v>
       </c>
       <c r="T20" t="n">
-        <v>1357.266705037994</v>
+        <v>1157.934906946163</v>
       </c>
       <c r="U20" t="n">
-        <v>1103.612993651267</v>
+        <v>1157.934906946163</v>
       </c>
       <c r="V20" t="n">
-        <v>1103.612993651267</v>
+        <v>1157.934906946163</v>
       </c>
       <c r="W20" t="n">
-        <v>1103.612993651267</v>
+        <v>1157.934906946163</v>
       </c>
       <c r="X20" t="n">
-        <v>1103.612993651267</v>
+        <v>1157.934906946163</v>
       </c>
       <c r="Y20" t="n">
-        <v>724.1533986119484</v>
+        <v>778.4753119068444</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>833.5564354154303</v>
+        <v>512.6780938749478</v>
       </c>
       <c r="C21" t="n">
-        <v>659.1034061343033</v>
+        <v>338.2250645938208</v>
       </c>
       <c r="D21" t="n">
-        <v>510.1689964730521</v>
+        <v>189.2906549325695</v>
       </c>
       <c r="E21" t="n">
-        <v>350.9315414675966</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="F21" t="n">
-        <v>204.3969834944815</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="G21" t="n">
-        <v>67.20967887263706</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="H21" t="n">
-        <v>67.20967887263706</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="I21" t="n">
         <v>30.05319992711404</v>
       </c>
       <c r="J21" t="n">
-        <v>138.6652946566126</v>
+        <v>172.2409461182349</v>
       </c>
       <c r="K21" t="n">
-        <v>246.4870587006004</v>
+        <v>375.7978849304908</v>
       </c>
       <c r="L21" t="n">
-        <v>437.7892676450263</v>
+        <v>567.1000938749168</v>
       </c>
       <c r="M21" t="n">
         <v>809.6976167430626</v>
@@ -5853,28 +5853,28 @@
         <v>1502.659996355702</v>
       </c>
       <c r="R21" t="n">
-        <v>1502.659996355702</v>
+        <v>1497.32415279308</v>
       </c>
       <c r="S21" t="n">
-        <v>1502.659996355702</v>
+        <v>1352.5770300381</v>
       </c>
       <c r="T21" t="n">
-        <v>1502.659996355702</v>
+        <v>1156.61190737538</v>
       </c>
       <c r="U21" t="n">
-        <v>1274.53792551285</v>
+        <v>928.4898365325286</v>
       </c>
       <c r="V21" t="n">
-        <v>1274.53792551285</v>
+        <v>888.6537296599697</v>
       </c>
       <c r="W21" t="n">
-        <v>1020.300568784648</v>
+        <v>888.6537296599697</v>
       </c>
       <c r="X21" t="n">
-        <v>1020.300568784648</v>
+        <v>888.6537296599697</v>
       </c>
       <c r="Y21" t="n">
-        <v>1001.771772435498</v>
+        <v>680.8934308950159</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.86705794286704</v>
+        <v>349.1060222673567</v>
       </c>
       <c r="C22" t="n">
-        <v>32.86705794286704</v>
+        <v>180.1698393394498</v>
       </c>
       <c r="D22" t="n">
-        <v>32.86705794286704</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="E22" t="n">
-        <v>32.86705794286704</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="F22" t="n">
-        <v>32.86705794286704</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="G22" t="n">
-        <v>32.86705794286704</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="H22" t="n">
-        <v>32.86705794286704</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="I22" t="n">
-        <v>32.86705794286704</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="J22" t="n">
         <v>30.05319992711404</v>
@@ -5932,28 +5932,28 @@
         <v>1222.207619355652</v>
       </c>
       <c r="R22" t="n">
-        <v>1101.307949101401</v>
+        <v>1222.207619355652</v>
       </c>
       <c r="S22" t="n">
-        <v>897.5800751701238</v>
+        <v>1222.207619355652</v>
       </c>
       <c r="T22" t="n">
-        <v>672.8610678845071</v>
+        <v>1222.207619355652</v>
       </c>
       <c r="U22" t="n">
-        <v>383.7205109013616</v>
+        <v>1222.207619355652</v>
       </c>
       <c r="V22" t="n">
-        <v>129.0360226954747</v>
+        <v>1222.207619355652</v>
       </c>
       <c r="W22" t="n">
-        <v>32.86705794286704</v>
+        <v>979.5366171391439</v>
       </c>
       <c r="X22" t="n">
-        <v>32.86705794286704</v>
+        <v>751.5470662411266</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.86705794286704</v>
+        <v>530.7544870975964</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1102.331952490647</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="C23" t="n">
-        <v>1102.331952490647</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="D23" t="n">
-        <v>1102.331952490647</v>
+        <v>1168.43198504507</v>
       </c>
       <c r="E23" t="n">
-        <v>1102.331952490647</v>
+        <v>788.9723900057513</v>
       </c>
       <c r="F23" t="n">
-        <v>722.8723574513283</v>
+        <v>409.5127949664327</v>
       </c>
       <c r="G23" t="n">
-        <v>343.4127624120096</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="H23" t="n">
         <v>30.05319992711404</v>
@@ -6029,10 +6029,10 @@
         <v>1502.659996355702</v>
       </c>
       <c r="X23" t="n">
-        <v>1129.194238094622</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="Y23" t="n">
-        <v>1102.331952490647</v>
+        <v>1502.659996355702</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>83.39530642488126</v>
+        <v>664.5955036369455</v>
       </c>
       <c r="C24" t="n">
-        <v>67.20967887263706</v>
+        <v>490.1424743558185</v>
       </c>
       <c r="D24" t="n">
-        <v>67.20967887263706</v>
+        <v>341.2080646945673</v>
       </c>
       <c r="E24" t="n">
-        <v>67.20967887263706</v>
+        <v>181.9706096891118</v>
       </c>
       <c r="F24" t="n">
-        <v>67.20967887263706</v>
+        <v>181.9706096891118</v>
       </c>
       <c r="G24" t="n">
-        <v>67.20967887263706</v>
+        <v>44.78330506726729</v>
       </c>
       <c r="H24" t="n">
-        <v>67.20967887263706</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="I24" t="n">
         <v>30.05319992711404</v>
@@ -6090,28 +6090,28 @@
         <v>1502.659996355702</v>
       </c>
       <c r="R24" t="n">
-        <v>1497.32415279308</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="S24" t="n">
-        <v>1352.5770300381</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="T24" t="n">
-        <v>1156.61190737538</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="U24" t="n">
-        <v>1156.61190737538</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="V24" t="n">
-        <v>921.4597991436376</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="W24" t="n">
-        <v>667.222442415436</v>
+        <v>1248.4226396275</v>
       </c>
       <c r="X24" t="n">
-        <v>459.3709422099032</v>
+        <v>1040.571139421967</v>
       </c>
       <c r="Y24" t="n">
-        <v>251.6106434449493</v>
+        <v>832.8108406570136</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>812.5696036273954</v>
+        <v>418.1765796786202</v>
       </c>
       <c r="C25" t="n">
-        <v>643.6334206994885</v>
+        <v>249.2403967507133</v>
       </c>
       <c r="D25" t="n">
-        <v>493.5167812871528</v>
+        <v>249.2403967507133</v>
       </c>
       <c r="E25" t="n">
-        <v>345.6036877047596</v>
+        <v>249.2403967507133</v>
       </c>
       <c r="F25" t="n">
-        <v>198.7137402068493</v>
+        <v>249.2403967507133</v>
       </c>
       <c r="G25" t="n">
-        <v>30.31991825376886</v>
+        <v>249.2403967507133</v>
       </c>
       <c r="H25" t="n">
-        <v>30.05319992711404</v>
+        <v>96.87972223595483</v>
       </c>
       <c r="I25" t="n">
         <v>30.05319992711404</v>
@@ -6169,28 +6169,28 @@
         <v>1222.207619355652</v>
       </c>
       <c r="R25" t="n">
-        <v>1222.207619355652</v>
+        <v>1101.307949101401</v>
       </c>
       <c r="S25" t="n">
-        <v>1222.207619355652</v>
+        <v>897.5800751701238</v>
       </c>
       <c r="T25" t="n">
-        <v>1222.207619355652</v>
+        <v>672.8610678845071</v>
       </c>
       <c r="U25" t="n">
-        <v>1222.207619355652</v>
+        <v>672.8610678845071</v>
       </c>
       <c r="V25" t="n">
-        <v>1222.207619355652</v>
+        <v>418.1765796786202</v>
       </c>
       <c r="W25" t="n">
-        <v>1222.207619355652</v>
+        <v>418.1765796786202</v>
       </c>
       <c r="X25" t="n">
-        <v>994.2180684576351</v>
+        <v>418.1765796786202</v>
       </c>
       <c r="Y25" t="n">
-        <v>994.2180684576351</v>
+        <v>418.1765796786202</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1102.331952490647</v>
+        <v>370.2750480159848</v>
       </c>
       <c r="C26" t="n">
-        <v>1102.331952490647</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="D26" t="n">
-        <v>1102.331952490647</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="E26" t="n">
-        <v>722.8723574513283</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="F26" t="n">
-        <v>722.8723574513283</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="G26" t="n">
-        <v>343.4127624120096</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="H26" t="n">
         <v>30.05319992711404</v>
@@ -6254,22 +6254,22 @@
         <v>1502.659996355702</v>
       </c>
       <c r="T26" t="n">
-        <v>1289.939002157231</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="U26" t="n">
-        <v>1289.939002157231</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="V26" t="n">
-        <v>1289.939002157231</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="W26" t="n">
-        <v>1102.331952490647</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="X26" t="n">
-        <v>1102.331952490647</v>
+        <v>1129.194238094622</v>
       </c>
       <c r="Y26" t="n">
-        <v>1102.331952490647</v>
+        <v>749.7346430553035</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.6887698141622</v>
+        <v>173.5715389196998</v>
       </c>
       <c r="C27" t="n">
-        <v>430.2357405330353</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="D27" t="n">
-        <v>430.2357405330353</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="E27" t="n">
-        <v>430.2357405330353</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="F27" t="n">
-        <v>283.7011825599202</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="G27" t="n">
-        <v>146.5138779380757</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="H27" t="n">
-        <v>48.05190371310724</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="I27" t="n">
         <v>30.05319992711404</v>
       </c>
       <c r="J27" t="n">
-        <v>172.2409461182349</v>
+        <v>47.41082113123011</v>
       </c>
       <c r="K27" t="n">
-        <v>280.0627101622226</v>
+        <v>375.797884930491</v>
       </c>
       <c r="L27" t="n">
-        <v>471.3649191066486</v>
+        <v>567.100093874917</v>
       </c>
       <c r="M27" t="n">
-        <v>713.9624419747944</v>
+        <v>809.6976167430628</v>
       </c>
       <c r="N27" t="n">
         <v>1073.124619085817</v>
@@ -6333,22 +6333,22 @@
         <v>1502.659996355702</v>
       </c>
       <c r="T27" t="n">
-        <v>1502.659996355702</v>
+        <v>1306.694873692983</v>
       </c>
       <c r="U27" t="n">
-        <v>1274.537925512851</v>
+        <v>1078.572802850131</v>
       </c>
       <c r="V27" t="n">
-        <v>1274.537925512851</v>
+        <v>843.4206946183881</v>
       </c>
       <c r="W27" t="n">
-        <v>1020.300568784649</v>
+        <v>589.1833378901865</v>
       </c>
       <c r="X27" t="n">
-        <v>812.4490685791161</v>
+        <v>381.3318376846537</v>
       </c>
       <c r="Y27" t="n">
-        <v>604.6887698141622</v>
+        <v>173.5715389196998</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>621.9044536098976</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="C28" t="n">
-        <v>621.9044536098976</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="D28" t="n">
-        <v>621.9044536098976</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="E28" t="n">
-        <v>473.9913600275045</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="F28" t="n">
-        <v>471.7270449047273</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="G28" t="n">
-        <v>303.3332229516469</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="H28" t="n">
-        <v>150.9725484368884</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="I28" t="n">
-        <v>32.86705794286704</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="J28" t="n">
         <v>30.05319992711404</v>
@@ -6406,28 +6406,28 @@
         <v>1222.207619355652</v>
       </c>
       <c r="R28" t="n">
-        <v>1101.307949101401</v>
+        <v>1222.207619355652</v>
       </c>
       <c r="S28" t="n">
-        <v>1101.307949101401</v>
+        <v>1222.207619355652</v>
       </c>
       <c r="T28" t="n">
-        <v>876.5889418157844</v>
+        <v>1222.207619355652</v>
       </c>
       <c r="U28" t="n">
-        <v>876.5889418157844</v>
+        <v>933.0670623725071</v>
       </c>
       <c r="V28" t="n">
-        <v>621.9044536098976</v>
+        <v>678.3825741666202</v>
       </c>
       <c r="W28" t="n">
-        <v>621.9044536098976</v>
+        <v>388.9654041296596</v>
       </c>
       <c r="X28" t="n">
-        <v>621.9044536098976</v>
+        <v>160.9758532316422</v>
       </c>
       <c r="Y28" t="n">
-        <v>621.9044536098976</v>
+        <v>30.05319992711404</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>813.4828234959522</v>
+        <v>1182.522507960652</v>
       </c>
       <c r="C29" t="n">
-        <v>813.4828234959522</v>
+        <v>1182.522507960652</v>
       </c>
       <c r="D29" t="n">
-        <v>813.4828234959522</v>
+        <v>824.2568093539012</v>
       </c>
       <c r="E29" t="n">
-        <v>813.4828234959522</v>
+        <v>824.2568093539012</v>
       </c>
       <c r="F29" t="n">
-        <v>722.8723574513283</v>
+        <v>824.2568093539012</v>
       </c>
       <c r="G29" t="n">
-        <v>343.4127624120096</v>
+        <v>444.7972143145824</v>
       </c>
       <c r="H29" t="n">
-        <v>30.05319992711404</v>
+        <v>131.4376518296869</v>
       </c>
       <c r="I29" t="n">
         <v>30.05319992711404</v>
@@ -6488,25 +6488,25 @@
         <v>1502.659996355702</v>
       </c>
       <c r="S29" t="n">
-        <v>1357.266705037994</v>
+        <v>1395.243502159123</v>
       </c>
       <c r="T29" t="n">
-        <v>1144.545710839523</v>
+        <v>1182.522507960652</v>
       </c>
       <c r="U29" t="n">
-        <v>1144.545710839523</v>
+        <v>1182.522507960652</v>
       </c>
       <c r="V29" t="n">
-        <v>813.4828234959522</v>
+        <v>1182.522507960652</v>
       </c>
       <c r="W29" t="n">
-        <v>813.4828234959522</v>
+        <v>1182.522507960652</v>
       </c>
       <c r="X29" t="n">
-        <v>813.4828234959522</v>
+        <v>1182.522507960652</v>
       </c>
       <c r="Y29" t="n">
-        <v>813.4828234959522</v>
+        <v>1182.522507960652</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>597.6587324252712</v>
+        <v>353.4406388694923</v>
       </c>
       <c r="C30" t="n">
-        <v>423.2057031441442</v>
+        <v>178.9876095883653</v>
       </c>
       <c r="D30" t="n">
-        <v>423.2057031441442</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="E30" t="n">
-        <v>423.2057031441442</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="F30" t="n">
-        <v>276.6711451710291</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="G30" t="n">
-        <v>139.4838405491847</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="H30" t="n">
-        <v>41.02186632421618</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="I30" t="n">
         <v>30.05319992711404</v>
@@ -6543,49 +6543,49 @@
         <v>47.41082113123011</v>
       </c>
       <c r="K30" t="n">
-        <v>167.8213700720004</v>
+        <v>155.2325851752179</v>
       </c>
       <c r="L30" t="n">
-        <v>359.1235790164263</v>
+        <v>346.5347941196438</v>
       </c>
       <c r="M30" t="n">
-        <v>601.7211018845721</v>
+        <v>718.44314321768</v>
       </c>
       <c r="N30" t="n">
-        <v>865.1481042273263</v>
+        <v>1073.124619085817</v>
       </c>
       <c r="O30" t="n">
-        <v>1083.912551529981</v>
+        <v>1291.889066388472</v>
       </c>
       <c r="P30" t="n">
-        <v>1240.157240861444</v>
+        <v>1448.133755719934</v>
       </c>
       <c r="Q30" t="n">
         <v>1502.659996355702</v>
       </c>
       <c r="R30" t="n">
-        <v>1502.659996355702</v>
+        <v>1497.324152793081</v>
       </c>
       <c r="S30" t="n">
-        <v>1502.659996355702</v>
+        <v>1497.324152793081</v>
       </c>
       <c r="T30" t="n">
-        <v>1502.659996355702</v>
+        <v>1301.359030130361</v>
       </c>
       <c r="U30" t="n">
-        <v>1502.659996355702</v>
+        <v>1073.236959287509</v>
       </c>
       <c r="V30" t="n">
-        <v>1267.507888123959</v>
+        <v>838.0848510557666</v>
       </c>
       <c r="W30" t="n">
-        <v>1013.270531395758</v>
+        <v>583.8474943275651</v>
       </c>
       <c r="X30" t="n">
-        <v>805.419031190225</v>
+        <v>583.8474943275651</v>
       </c>
       <c r="Y30" t="n">
-        <v>597.6587324252712</v>
+        <v>521.6559758895603</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>812.3028853007405</v>
+        <v>487.2788628895449</v>
       </c>
       <c r="C31" t="n">
-        <v>643.3667023728336</v>
+        <v>474.9728804197532</v>
       </c>
       <c r="D31" t="n">
-        <v>493.2500629604979</v>
+        <v>324.8562410074175</v>
       </c>
       <c r="E31" t="n">
-        <v>345.3369693781048</v>
+        <v>176.9431474250244</v>
       </c>
       <c r="F31" t="n">
-        <v>198.4470218801945</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="G31" t="n">
         <v>30.05319992711404</v>
@@ -6646,25 +6646,25 @@
         <v>1222.207619355652</v>
       </c>
       <c r="S31" t="n">
-        <v>1018.479745424375</v>
+        <v>1222.207619355652</v>
       </c>
       <c r="T31" t="n">
-        <v>1018.479745424375</v>
+        <v>997.4886120700357</v>
       </c>
       <c r="U31" t="n">
-        <v>1018.479745424375</v>
+        <v>997.4886120700357</v>
       </c>
       <c r="V31" t="n">
-        <v>1018.479745424375</v>
+        <v>997.4886120700357</v>
       </c>
       <c r="W31" t="n">
-        <v>1018.479745424375</v>
+        <v>708.0714420330751</v>
       </c>
       <c r="X31" t="n">
-        <v>1018.479745424375</v>
+        <v>708.0714420330751</v>
       </c>
       <c r="Y31" t="n">
-        <v>993.9513501309802</v>
+        <v>487.2788628895449</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1502.659996355702</v>
+        <v>788.9723900057515</v>
       </c>
       <c r="C32" t="n">
-        <v>1168.43198504507</v>
+        <v>788.9723900057515</v>
       </c>
       <c r="D32" t="n">
-        <v>1168.43198504507</v>
+        <v>788.9723900057515</v>
       </c>
       <c r="E32" t="n">
         <v>788.9723900057515</v>
@@ -6728,22 +6728,22 @@
         <v>1502.659996355702</v>
       </c>
       <c r="T32" t="n">
-        <v>1502.659996355702</v>
+        <v>1373.688988736049</v>
       </c>
       <c r="U32" t="n">
-        <v>1502.659996355702</v>
+        <v>1120.035277349322</v>
       </c>
       <c r="V32" t="n">
-        <v>1502.659996355702</v>
+        <v>788.9723900057515</v>
       </c>
       <c r="W32" t="n">
-        <v>1502.659996355702</v>
+        <v>788.9723900057515</v>
       </c>
       <c r="X32" t="n">
-        <v>1502.659996355702</v>
+        <v>788.9723900057515</v>
       </c>
       <c r="Y32" t="n">
-        <v>1502.659996355702</v>
+        <v>788.9723900057515</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>597.6587324252712</v>
+        <v>832.8108406570138</v>
       </c>
       <c r="C33" t="n">
-        <v>423.2057031441442</v>
+        <v>658.3578113758869</v>
       </c>
       <c r="D33" t="n">
-        <v>274.2712934828929</v>
+        <v>509.4234017146356</v>
       </c>
       <c r="E33" t="n">
-        <v>115.0338384774374</v>
+        <v>350.1859467091801</v>
       </c>
       <c r="F33" t="n">
-        <v>115.0338384774374</v>
+        <v>203.6513887360651</v>
       </c>
       <c r="G33" t="n">
-        <v>30.05319992711404</v>
+        <v>66.46408411422058</v>
       </c>
       <c r="H33" t="n">
-        <v>30.05319992711404</v>
+        <v>66.46408411422058</v>
       </c>
       <c r="I33" t="n">
         <v>30.05319992711404</v>
       </c>
       <c r="J33" t="n">
-        <v>87.36998073289294</v>
+        <v>52.31246111992968</v>
       </c>
       <c r="K33" t="n">
-        <v>195.1917447768807</v>
+        <v>160.1342251639175</v>
       </c>
       <c r="L33" t="n">
-        <v>567.100093874917</v>
+        <v>351.4364341083434</v>
       </c>
       <c r="M33" t="n">
-        <v>809.6976167430628</v>
+        <v>594.0339569764892</v>
       </c>
       <c r="N33" t="n">
-        <v>1073.124619085817</v>
+        <v>857.4609593192433</v>
       </c>
       <c r="O33" t="n">
-        <v>1291.889066388472</v>
+        <v>1076.225406621898</v>
       </c>
       <c r="P33" t="n">
         <v>1448.133755719934</v>
@@ -6813,16 +6813,16 @@
         <v>1502.659996355702</v>
       </c>
       <c r="V33" t="n">
-        <v>1267.507888123959</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="W33" t="n">
-        <v>1013.270531395758</v>
+        <v>1248.422639627501</v>
       </c>
       <c r="X33" t="n">
-        <v>805.419031190225</v>
+        <v>1040.571139421968</v>
       </c>
       <c r="Y33" t="n">
-        <v>597.6587324252712</v>
+        <v>832.8108406570138</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>479.4417598550706</v>
+        <v>324.8562410074175</v>
       </c>
       <c r="C34" t="n">
-        <v>310.5055769271636</v>
+        <v>324.8562410074175</v>
       </c>
       <c r="D34" t="n">
-        <v>310.5055769271636</v>
+        <v>324.8562410074175</v>
       </c>
       <c r="E34" t="n">
-        <v>310.5055769271636</v>
+        <v>176.9431474250244</v>
       </c>
       <c r="F34" t="n">
-        <v>310.5055769271636</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="G34" t="n">
-        <v>310.5055769271636</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="H34" t="n">
-        <v>310.5055769271636</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="I34" t="n">
-        <v>310.5055769271636</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="J34" t="n">
-        <v>310.5055769271636</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="K34" t="n">
-        <v>435.8103987965907</v>
+        <v>155.3580217965411</v>
       </c>
       <c r="L34" t="n">
-        <v>651.6838644521827</v>
+        <v>371.2314874521331</v>
       </c>
       <c r="M34" t="n">
-        <v>889.681289387182</v>
+        <v>609.2289123871324</v>
       </c>
       <c r="N34" t="n">
-        <v>1127.454283929481</v>
+        <v>847.0019069294312</v>
       </c>
       <c r="O34" t="n">
-        <v>1331.059833549168</v>
+        <v>1050.607456549119</v>
       </c>
       <c r="P34" t="n">
-        <v>1481.758872965535</v>
+        <v>1201.306495965486</v>
       </c>
       <c r="Q34" t="n">
-        <v>1502.659996355702</v>
+        <v>1222.207619355652</v>
       </c>
       <c r="R34" t="n">
-        <v>1502.659996355702</v>
+        <v>1101.307949101401</v>
       </c>
       <c r="S34" t="n">
-        <v>1502.659996355702</v>
+        <v>897.5800751701238</v>
       </c>
       <c r="T34" t="n">
-        <v>1277.940989070085</v>
+        <v>672.8610678845071</v>
       </c>
       <c r="U34" t="n">
-        <v>1277.940989070085</v>
+        <v>383.7205109013616</v>
       </c>
       <c r="V34" t="n">
-        <v>1277.940989070085</v>
+        <v>324.8562410074175</v>
       </c>
       <c r="W34" t="n">
-        <v>1109.872354726858</v>
+        <v>324.8562410074175</v>
       </c>
       <c r="X34" t="n">
-        <v>881.8828038288405</v>
+        <v>324.8562410074175</v>
       </c>
       <c r="Y34" t="n">
-        <v>661.0902246853103</v>
+        <v>324.8562410074175</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>770.4317460462696</v>
+        <v>890.8919994527964</v>
       </c>
       <c r="C35" t="n">
-        <v>770.4317460462696</v>
+        <v>890.8919994527964</v>
       </c>
       <c r="D35" t="n">
-        <v>412.1660474395191</v>
+        <v>532.626300846046</v>
       </c>
       <c r="E35" t="n">
-        <v>32.70645240020025</v>
+        <v>153.1667058067271</v>
       </c>
       <c r="F35" t="n">
-        <v>32.70645240020025</v>
+        <v>153.1667058067271</v>
       </c>
       <c r="G35" t="n">
-        <v>32.70645240020025</v>
+        <v>153.1667058067271</v>
       </c>
       <c r="H35" t="n">
-        <v>32.70645240020025</v>
+        <v>131.4376518296869</v>
       </c>
       <c r="I35" t="n">
         <v>30.05319992711405</v>
@@ -6962,25 +6962,25 @@
         <v>1502.659996355703</v>
       </c>
       <c r="S35" t="n">
-        <v>1502.659996355703</v>
+        <v>1357.266705037995</v>
       </c>
       <c r="T35" t="n">
-        <v>1502.659996355703</v>
+        <v>1144.545710839523</v>
       </c>
       <c r="U35" t="n">
-        <v>1502.659996355703</v>
+        <v>890.8919994527964</v>
       </c>
       <c r="V35" t="n">
-        <v>1502.659996355703</v>
+        <v>890.8919994527964</v>
       </c>
       <c r="W35" t="n">
-        <v>1149.891341085588</v>
+        <v>890.8919994527964</v>
       </c>
       <c r="X35" t="n">
-        <v>1149.891341085588</v>
+        <v>890.8919994527964</v>
       </c>
       <c r="Y35" t="n">
-        <v>1149.891341085588</v>
+        <v>890.8919994527964</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>441.2385715074379</v>
+        <v>649.8653984967923</v>
       </c>
       <c r="C36" t="n">
-        <v>441.2385715074379</v>
+        <v>475.4123692156653</v>
       </c>
       <c r="D36" t="n">
-        <v>292.3041618461867</v>
+        <v>326.477959554414</v>
       </c>
       <c r="E36" t="n">
-        <v>133.0667068407312</v>
+        <v>167.2405045489585</v>
       </c>
       <c r="F36" t="n">
-        <v>133.0667068407312</v>
+        <v>167.2405045489585</v>
       </c>
       <c r="G36" t="n">
-        <v>133.0667068407312</v>
+        <v>30.05319992711405</v>
       </c>
       <c r="H36" t="n">
-        <v>34.60473261576269</v>
+        <v>30.05319992711405</v>
       </c>
       <c r="I36" t="n">
         <v>30.05319992711405</v>
@@ -7023,16 +7023,16 @@
         <v>346.5347941196438</v>
       </c>
       <c r="M36" t="n">
-        <v>589.1323169877896</v>
+        <v>718.4431432176802</v>
       </c>
       <c r="N36" t="n">
-        <v>852.5593193305438</v>
+        <v>981.8701455604344</v>
       </c>
       <c r="O36" t="n">
-        <v>1071.323766633198</v>
+        <v>1200.634592863089</v>
       </c>
       <c r="P36" t="n">
-        <v>1240.157240861444</v>
+        <v>1356.879282194552</v>
       </c>
       <c r="Q36" t="n">
         <v>1502.659996355703</v>
@@ -7044,22 +7044,22 @@
         <v>1502.659996355703</v>
       </c>
       <c r="T36" t="n">
-        <v>1306.694873692983</v>
+        <v>1502.659996355703</v>
       </c>
       <c r="U36" t="n">
-        <v>1306.694873692983</v>
+        <v>1502.659996355703</v>
       </c>
       <c r="V36" t="n">
-        <v>1071.54276546124</v>
+        <v>1487.929891215549</v>
       </c>
       <c r="W36" t="n">
-        <v>817.3054087330388</v>
+        <v>1233.692534487347</v>
       </c>
       <c r="X36" t="n">
-        <v>609.453908527506</v>
+        <v>1025.841034281814</v>
       </c>
       <c r="Y36" t="n">
-        <v>609.453908527506</v>
+        <v>818.0807355168604</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>708.0714420330751</v>
+        <v>182.4138744418725</v>
       </c>
       <c r="C37" t="n">
-        <v>539.1352591051682</v>
+        <v>182.4138744418725</v>
       </c>
       <c r="D37" t="n">
-        <v>389.0186196928324</v>
+        <v>182.4138744418725</v>
       </c>
       <c r="E37" t="n">
-        <v>241.1055261104393</v>
+        <v>182.4138744418725</v>
       </c>
       <c r="F37" t="n">
         <v>182.4138744418725</v>
@@ -7123,22 +7123,22 @@
         <v>1222.207619355652</v>
       </c>
       <c r="T37" t="n">
-        <v>997.4886120700357</v>
+        <v>1015.656089667865</v>
       </c>
       <c r="U37" t="n">
-        <v>997.4886120700357</v>
+        <v>726.51553268472</v>
       </c>
       <c r="V37" t="n">
-        <v>997.4886120700357</v>
+        <v>471.8310444788331</v>
       </c>
       <c r="W37" t="n">
-        <v>708.0714420330751</v>
+        <v>182.4138744418725</v>
       </c>
       <c r="X37" t="n">
-        <v>708.0714420330751</v>
+        <v>182.4138744418725</v>
       </c>
       <c r="Y37" t="n">
-        <v>708.0714420330751</v>
+        <v>182.4138744418725</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>890.8919994527957</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="C38" t="n">
-        <v>890.8919994527957</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="D38" t="n">
-        <v>890.8919994527957</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="E38" t="n">
-        <v>511.4324044134771</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="F38" t="n">
-        <v>511.4324044134771</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="G38" t="n">
-        <v>343.4127624120096</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="H38" t="n">
         <v>30.05319992711404</v>
@@ -7208,16 +7208,16 @@
         <v>890.8919994527957</v>
       </c>
       <c r="V38" t="n">
-        <v>890.8919994527957</v>
+        <v>782.9785532275125</v>
       </c>
       <c r="W38" t="n">
-        <v>890.8919994527957</v>
+        <v>782.9785532275125</v>
       </c>
       <c r="X38" t="n">
-        <v>890.8919994527957</v>
+        <v>409.5127949664327</v>
       </c>
       <c r="Y38" t="n">
-        <v>890.8919994527957</v>
+        <v>30.05319992711404</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>201.321324562351</v>
+        <v>165.6716530976055</v>
       </c>
       <c r="C39" t="n">
-        <v>30.05319992711404</v>
+        <v>165.6716530976055</v>
       </c>
       <c r="D39" t="n">
-        <v>30.05319992711404</v>
+        <v>165.6716530976055</v>
       </c>
       <c r="E39" t="n">
-        <v>30.05319992711404</v>
+        <v>165.6716530976055</v>
       </c>
       <c r="F39" t="n">
-        <v>30.05319992711404</v>
+        <v>165.6716530976055</v>
       </c>
       <c r="G39" t="n">
-        <v>30.05319992711404</v>
+        <v>165.6716530976055</v>
       </c>
       <c r="H39" t="n">
-        <v>30.05319992711404</v>
+        <v>67.20967887263707</v>
       </c>
       <c r="I39" t="n">
         <v>30.05319992711404</v>
       </c>
       <c r="J39" t="n">
-        <v>47.41082113123008</v>
+        <v>87.36998073289288</v>
       </c>
       <c r="K39" t="n">
-        <v>155.2325851752178</v>
+        <v>195.1917447768806</v>
       </c>
       <c r="L39" t="n">
-        <v>346.5347941196437</v>
+        <v>567.1000938749169</v>
       </c>
       <c r="M39" t="n">
-        <v>589.1323169877894</v>
+        <v>809.6976167430626</v>
       </c>
       <c r="N39" t="n">
-        <v>852.5593193305435</v>
+        <v>1073.124619085817</v>
       </c>
       <c r="O39" t="n">
-        <v>1071.323766633198</v>
+        <v>1291.889066388471</v>
       </c>
       <c r="P39" t="n">
-        <v>1240.157240861443</v>
+        <v>1448.133755719934</v>
       </c>
       <c r="Q39" t="n">
         <v>1502.659996355702</v>
@@ -7278,25 +7278,25 @@
         <v>1502.659996355702</v>
       </c>
       <c r="S39" t="n">
-        <v>1502.659996355702</v>
+        <v>1357.912873600721</v>
       </c>
       <c r="T39" t="n">
-        <v>1502.659996355702</v>
+        <v>1357.912873600721</v>
       </c>
       <c r="U39" t="n">
-        <v>1274.53792551285</v>
+        <v>1129.79080275787</v>
       </c>
       <c r="V39" t="n">
-        <v>1039.385817281107</v>
+        <v>894.638694526127</v>
       </c>
       <c r="W39" t="n">
-        <v>785.1484605529058</v>
+        <v>640.4013377979254</v>
       </c>
       <c r="X39" t="n">
-        <v>577.296960347373</v>
+        <v>432.5498375923926</v>
       </c>
       <c r="Y39" t="n">
-        <v>369.5366615824191</v>
+        <v>224.7895388274387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>194.8677622939987</v>
+        <v>766.5300859850308</v>
       </c>
       <c r="C40" t="n">
-        <v>194.8677622939987</v>
+        <v>766.5300859850308</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8677622939987</v>
+        <v>766.5300859850308</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8677622939987</v>
+        <v>618.6169924026377</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8677622939987</v>
+        <v>471.7270449047273</v>
       </c>
       <c r="G40" t="n">
-        <v>30.05319992711404</v>
+        <v>303.3332229516469</v>
       </c>
       <c r="H40" t="n">
-        <v>30.05319992711404</v>
+        <v>150.9725484368884</v>
       </c>
       <c r="I40" t="n">
-        <v>30.05319992711404</v>
+        <v>32.86705794286705</v>
       </c>
       <c r="J40" t="n">
         <v>30.05319992711404</v>
@@ -7354,28 +7354,28 @@
         <v>1222.207619355652</v>
       </c>
       <c r="R40" t="n">
-        <v>1222.207619355652</v>
+        <v>1101.307949101401</v>
       </c>
       <c r="S40" t="n">
-        <v>1222.207619355652</v>
+        <v>897.5800751701236</v>
       </c>
       <c r="T40" t="n">
-        <v>1222.207619355652</v>
+        <v>766.5300859850308</v>
       </c>
       <c r="U40" t="n">
-        <v>933.0670623725068</v>
+        <v>766.5300859850308</v>
       </c>
       <c r="V40" t="n">
-        <v>933.0670623725068</v>
+        <v>766.5300859850308</v>
       </c>
       <c r="W40" t="n">
-        <v>643.6498923355462</v>
+        <v>766.5300859850308</v>
       </c>
       <c r="X40" t="n">
-        <v>415.6603414375288</v>
+        <v>766.5300859850308</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.8677622939987</v>
+        <v>766.5300859850308</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>409.5127949664327</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="C41" t="n">
-        <v>409.5127949664327</v>
+        <v>1168.43198504507</v>
       </c>
       <c r="D41" t="n">
-        <v>409.5127949664327</v>
+        <v>1168.43198504507</v>
       </c>
       <c r="E41" t="n">
-        <v>409.5127949664327</v>
+        <v>788.9723900057513</v>
       </c>
       <c r="F41" t="n">
         <v>409.5127949664327</v>
@@ -7409,22 +7409,22 @@
         <v>30.05319992711404</v>
       </c>
       <c r="J41" t="n">
-        <v>90.79175644470502</v>
+        <v>90.79175644470476</v>
       </c>
       <c r="K41" t="n">
-        <v>232.5616260640391</v>
+        <v>232.5616260640388</v>
       </c>
       <c r="L41" t="n">
-        <v>445.3414473341659</v>
+        <v>445.3414473341657</v>
       </c>
       <c r="M41" t="n">
-        <v>713.7694342236243</v>
+        <v>713.7694342236241</v>
       </c>
       <c r="N41" t="n">
-        <v>991.1546749526075</v>
+        <v>991.1546749526071</v>
       </c>
       <c r="O41" t="n">
-        <v>1239.746430806165</v>
+        <v>1239.746430806164</v>
       </c>
       <c r="P41" t="n">
         <v>1417.412742194682</v>
@@ -7439,22 +7439,22 @@
         <v>1502.659996355702</v>
       </c>
       <c r="T41" t="n">
-        <v>1289.939002157231</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="U41" t="n">
-        <v>1036.285290770504</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="V41" t="n">
-        <v>1036.285290770504</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="W41" t="n">
-        <v>782.9785532275125</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="X41" t="n">
-        <v>409.5127949664327</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="Y41" t="n">
-        <v>409.5127949664327</v>
+        <v>1502.659996355702</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>659.1034061343034</v>
+        <v>717.5318941398059</v>
       </c>
       <c r="C42" t="n">
-        <v>659.1034061343034</v>
+        <v>543.0788648586789</v>
       </c>
       <c r="D42" t="n">
-        <v>510.1689964730521</v>
+        <v>543.0788648586789</v>
       </c>
       <c r="E42" t="n">
-        <v>350.9315414675966</v>
+        <v>383.8414098532234</v>
       </c>
       <c r="F42" t="n">
-        <v>204.3969834944816</v>
+        <v>237.3068518801084</v>
       </c>
       <c r="G42" t="n">
-        <v>67.20967887263707</v>
+        <v>100.1195472582639</v>
       </c>
       <c r="H42" t="n">
-        <v>67.20967887263707</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="I42" t="n">
         <v>30.05319992711404</v>
       </c>
       <c r="J42" t="n">
-        <v>138.6652946566127</v>
+        <v>47.41082113123008</v>
       </c>
       <c r="K42" t="n">
-        <v>246.4870587006004</v>
+        <v>155.2325851752178</v>
       </c>
       <c r="L42" t="n">
-        <v>437.7892676450263</v>
+        <v>346.5347941196437</v>
       </c>
       <c r="M42" t="n">
-        <v>809.6976167430626</v>
+        <v>589.1323169877894</v>
       </c>
       <c r="N42" t="n">
-        <v>1073.124619085817</v>
+        <v>852.5593193305435</v>
       </c>
       <c r="O42" t="n">
-        <v>1291.889066388471</v>
+        <v>1083.912551529981</v>
       </c>
       <c r="P42" t="n">
-        <v>1448.133755719934</v>
+        <v>1240.157240861443</v>
       </c>
       <c r="Q42" t="n">
         <v>1502.659996355702</v>
@@ -7521,19 +7521,19 @@
         <v>1301.359030130361</v>
       </c>
       <c r="U42" t="n">
-        <v>1073.236959287509</v>
+        <v>1301.359030130361</v>
       </c>
       <c r="V42" t="n">
-        <v>913.340762862505</v>
+        <v>1301.359030130361</v>
       </c>
       <c r="W42" t="n">
-        <v>659.1034061343034</v>
+        <v>1301.359030130361</v>
       </c>
       <c r="X42" t="n">
-        <v>659.1034061343034</v>
+        <v>1093.507529924828</v>
       </c>
       <c r="Y42" t="n">
-        <v>659.1034061343034</v>
+        <v>885.747231159874</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>643.6498923355462</v>
+        <v>211.9324675062515</v>
       </c>
       <c r="C43" t="n">
-        <v>474.7137094076393</v>
+        <v>211.9324675062515</v>
       </c>
       <c r="D43" t="n">
-        <v>474.7137094076393</v>
+        <v>211.9324675062515</v>
       </c>
       <c r="E43" t="n">
-        <v>326.8006158252462</v>
+        <v>176.9431474250244</v>
       </c>
       <c r="F43" t="n">
-        <v>326.8006158252462</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="G43" t="n">
-        <v>303.3332229516469</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="H43" t="n">
-        <v>150.9725484368884</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="I43" t="n">
-        <v>32.86705794286705</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="J43" t="n">
         <v>30.05319992711404</v>
@@ -7594,25 +7594,25 @@
         <v>1222.207619355652</v>
       </c>
       <c r="S43" t="n">
-        <v>1222.207619355652</v>
+        <v>1018.479745424375</v>
       </c>
       <c r="T43" t="n">
-        <v>1222.207619355652</v>
+        <v>1018.479745424375</v>
       </c>
       <c r="U43" t="n">
-        <v>933.0670623725068</v>
+        <v>729.3391884412295</v>
       </c>
       <c r="V43" t="n">
-        <v>933.0670623725068</v>
+        <v>729.3391884412295</v>
       </c>
       <c r="W43" t="n">
-        <v>643.6498923355462</v>
+        <v>439.9220184042688</v>
       </c>
       <c r="X43" t="n">
-        <v>643.6498923355462</v>
+        <v>211.9324675062515</v>
       </c>
       <c r="Y43" t="n">
-        <v>643.6498923355462</v>
+        <v>211.9324675062515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>409.5127949664327</v>
+        <v>743.7408062770646</v>
       </c>
       <c r="C44" t="n">
-        <v>409.5127949664327</v>
+        <v>374.7782893366529</v>
       </c>
       <c r="D44" t="n">
-        <v>409.5127949664327</v>
+        <v>343.4127624120096</v>
       </c>
       <c r="E44" t="n">
-        <v>30.05319992711404</v>
+        <v>343.4127624120096</v>
       </c>
       <c r="F44" t="n">
-        <v>30.05319992711404</v>
+        <v>343.4127624120096</v>
       </c>
       <c r="G44" t="n">
-        <v>30.05319992711404</v>
+        <v>343.4127624120096</v>
       </c>
       <c r="H44" t="n">
         <v>30.05319992711404</v>
@@ -7652,13 +7652,13 @@
         <v>232.5616260640388</v>
       </c>
       <c r="L44" t="n">
-        <v>445.3414473341659</v>
+        <v>445.3414473341657</v>
       </c>
       <c r="M44" t="n">
-        <v>713.7694342236243</v>
+        <v>713.7694342236241</v>
       </c>
       <c r="N44" t="n">
-        <v>991.1546749526075</v>
+        <v>991.1546749526071</v>
       </c>
       <c r="O44" t="n">
         <v>1239.746430806165</v>
@@ -7676,22 +7676,22 @@
         <v>1502.659996355702</v>
       </c>
       <c r="T44" t="n">
-        <v>1289.939002157231</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="U44" t="n">
-        <v>1289.939002157231</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="V44" t="n">
-        <v>1289.939002157231</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="W44" t="n">
-        <v>1289.939002157231</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="X44" t="n">
-        <v>916.4732438961507</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="Y44" t="n">
-        <v>788.9723900057513</v>
+        <v>1123.200401316383</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>757.5653803592718</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="C45" t="n">
-        <v>757.5653803592718</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="D45" t="n">
-        <v>608.6309706980205</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="E45" t="n">
-        <v>449.3935156925651</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="F45" t="n">
-        <v>302.85895771945</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="G45" t="n">
-        <v>165.6716530976055</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="H45" t="n">
-        <v>67.20967887263707</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="I45" t="n">
         <v>30.05319992711404</v>
       </c>
       <c r="J45" t="n">
-        <v>47.41082113123008</v>
+        <v>172.2409461182348</v>
       </c>
       <c r="K45" t="n">
-        <v>155.2325851752178</v>
+        <v>280.0627101622226</v>
       </c>
       <c r="L45" t="n">
-        <v>346.5347941196437</v>
+        <v>471.3649191066485</v>
       </c>
       <c r="M45" t="n">
-        <v>589.1323169877894</v>
+        <v>713.9624419747943</v>
       </c>
       <c r="N45" t="n">
-        <v>919.980717290435</v>
+        <v>977.3894443175484</v>
       </c>
       <c r="O45" t="n">
-        <v>1291.889066388471</v>
+        <v>1196.153891620203</v>
       </c>
       <c r="P45" t="n">
-        <v>1448.133755719934</v>
+        <v>1352.398580951666</v>
       </c>
       <c r="Q45" t="n">
         <v>1502.659996355702</v>
       </c>
       <c r="R45" t="n">
-        <v>1497.32415279308</v>
+        <v>1502.659996355702</v>
       </c>
       <c r="S45" t="n">
-        <v>1352.5770300381</v>
+        <v>1357.912873600721</v>
       </c>
       <c r="T45" t="n">
-        <v>1156.61190737538</v>
+        <v>1161.947750938002</v>
       </c>
       <c r="U45" t="n">
-        <v>1011.802737087473</v>
+        <v>935.054463857545</v>
       </c>
       <c r="V45" t="n">
-        <v>1011.802737087473</v>
+        <v>699.9023556258023</v>
       </c>
       <c r="W45" t="n">
-        <v>757.5653803592718</v>
+        <v>445.6649988976008</v>
       </c>
       <c r="X45" t="n">
-        <v>757.5653803592718</v>
+        <v>237.813498692068</v>
       </c>
       <c r="Y45" t="n">
-        <v>757.5653803592718</v>
+        <v>30.05319992711404</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>875.7747830162469</v>
+        <v>138.3896417372761</v>
       </c>
       <c r="C46" t="n">
-        <v>875.7747830162469</v>
+        <v>138.3896417372761</v>
       </c>
       <c r="D46" t="n">
-        <v>875.7747830162469</v>
+        <v>138.3896417372761</v>
       </c>
       <c r="E46" t="n">
-        <v>727.8616894338538</v>
+        <v>138.3896417372761</v>
       </c>
       <c r="F46" t="n">
-        <v>580.9717419359434</v>
+        <v>138.3896417372761</v>
       </c>
       <c r="G46" t="n">
-        <v>580.9717419359434</v>
+        <v>32.86705794286705</v>
       </c>
       <c r="H46" t="n">
-        <v>428.611067421185</v>
+        <v>32.86705794286705</v>
       </c>
       <c r="I46" t="n">
-        <v>310.5055769271636</v>
+        <v>32.86705794286705</v>
       </c>
       <c r="J46" t="n">
-        <v>310.5055769271636</v>
+        <v>30.05319992711404</v>
       </c>
       <c r="K46" t="n">
-        <v>435.8103987965907</v>
+        <v>155.358021796541</v>
       </c>
       <c r="L46" t="n">
-        <v>651.6838644521827</v>
+        <v>371.231487452133</v>
       </c>
       <c r="M46" t="n">
-        <v>889.6812893871819</v>
+        <v>609.2289123871323</v>
       </c>
       <c r="N46" t="n">
-        <v>1127.454283929481</v>
+        <v>847.001906929431</v>
       </c>
       <c r="O46" t="n">
-        <v>1331.059833549168</v>
+        <v>1050.607456549118</v>
       </c>
       <c r="P46" t="n">
-        <v>1481.758872965535</v>
+        <v>1201.306495965486</v>
       </c>
       <c r="Q46" t="n">
-        <v>1502.659996355702</v>
+        <v>1222.207619355652</v>
       </c>
       <c r="R46" t="n">
-        <v>1381.760326101451</v>
+        <v>1101.307949101401</v>
       </c>
       <c r="S46" t="n">
-        <v>1381.760326101451</v>
+        <v>1101.307949101401</v>
       </c>
       <c r="T46" t="n">
-        <v>1381.760326101451</v>
+        <v>876.5889418157842</v>
       </c>
       <c r="U46" t="n">
-        <v>1092.619769118305</v>
+        <v>876.5889418157842</v>
       </c>
       <c r="V46" t="n">
-        <v>1092.619769118305</v>
+        <v>876.5889418157842</v>
       </c>
       <c r="W46" t="n">
-        <v>875.7747830162469</v>
+        <v>587.1717717788235</v>
       </c>
       <c r="X46" t="n">
-        <v>875.7747830162469</v>
+        <v>359.1822208808062</v>
       </c>
       <c r="Y46" t="n">
-        <v>875.7747830162469</v>
+        <v>138.3896417372761</v>
       </c>
     </row>
   </sheetData>
@@ -8137,16 +8137,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>35.72733729809465</v>
       </c>
       <c r="L4" t="n">
-        <v>119.3514840274685</v>
+        <v>7.238823902544752</v>
       </c>
       <c r="M4" t="n">
-        <v>41.73837362497186</v>
+        <v>116.4537900083358</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>108.4136727881177</v>
       </c>
       <c r="O4" t="n">
         <v>129.2143182548925</v>
@@ -8617,13 +8617,13 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>171.4142040457084</v>
+        <v>82.97369176944341</v>
       </c>
       <c r="N10" t="n">
         <v>163.8604018711117</v>
       </c>
       <c r="O10" t="n">
-        <v>74.60115408961748</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>12.71594434018432</v>
       </c>
       <c r="L15" t="n">
-        <v>96.70219673562468</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>12.71594434018405</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>96.70219673562457</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>92.17623588422472</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>96.7021967356244</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>130.6169961918084</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>222.7932320760334</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>96.70219673562468</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10191,16 +10191,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>12.71594434018435</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>130.6169961918085</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>92.17623588422504</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>40.3627874764271</v>
+        <v>4.951151503736938</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>182.4304445996064</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>217.8420805722965</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>130.6169961918087</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>12.71594434018476</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>92.17623588422529</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>40.36278747642708</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>182.4304445996063</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>12.71594434018436</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>92.17623588422488</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,19 +11145,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>130.6169961918085</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>12.71594434018434</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11385,16 +11385,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>68.10242218170856</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>154.6908098943248</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>96.7021967356246</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.068842574555106</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.4467545779232</v>
+        <v>298.565175761227</v>
       </c>
       <c r="H11" t="n">
-        <v>310.2259668600466</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>64.87920587418773</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>143.9393584045309</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.5937842564866</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1171742728596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,28 +23334,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>148.4768862106321</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.815431575626</v>
       </c>
       <c r="H12" t="n">
         <v>97.47735448271879</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>36.7849141560678</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,22 +23382,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>5.282485126995198</v>
       </c>
       <c r="S12" t="n">
-        <v>143.2996515274307</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>193.4447557114304</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>44.57351626186224</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23437,7 +23437,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.785719435595482</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>119.6906735517087</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>201.6905951919645</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>222.4718172127606</v>
+        <v>93.14103347920442</v>
       </c>
       <c r="U13" t="n">
         <v>286.249151413314</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>143.9393584045309</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.55455793106128</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>194.4939163355921</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23571,13 +23571,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>24.45002804720792</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23586,13 +23586,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.815431575626</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>97.47735448271879</v>
       </c>
       <c r="I15" t="n">
-        <v>24.33357961742086</v>
+        <v>36.7849141560678</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,13 +23619,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>5.282485126995198</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>143.2996515274307</v>
       </c>
       <c r="T15" t="n">
-        <v>194.0054714360924</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23640,7 +23640,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.7098837335496</v>
+        <v>87.12646866333232</v>
       </c>
       <c r="H16" t="n">
-        <v>150.8370677696109</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>116.9244355890811</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.785719435595482</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>119.6906735517087</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>68.83933024420537</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>143.9393584045309</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>50.55455793106128</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>194.4939163355921</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23808,16 +23808,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23826,7 +23826,7 @@
         <v>135.815431575626</v>
       </c>
       <c r="H18" t="n">
-        <v>97.47735448271879</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,10 +23856,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>5.282485126995184</v>
       </c>
       <c r="S18" t="n">
-        <v>143.2996515274307</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23868,16 +23868,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>165.8345881468331</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>135.4787645635578</v>
       </c>
     </row>
     <row r="19">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.09355137351201</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>119.6906735517087</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>201.6905951919645</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>222.4718172127606</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>188.530003795914</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23969,7 @@
         <v>7.068842574555106</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23984,10 +23984,10 @@
         <v>412.4467545779232</v>
       </c>
       <c r="H20" t="n">
-        <v>99.10237663453313</v>
+        <v>310.2259668600466</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>100.3706073835471</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>13.255304145574</v>
       </c>
       <c r="T20" t="n">
-        <v>210.5937842564866</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1171742728596</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24057,16 +24057,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.815431575626</v>
       </c>
       <c r="H21" t="n">
         <v>97.47735448271879</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>36.78491415606779</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>5.282485126995184</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>143.2996515274307</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>194.0054714360924</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>193.362841345592</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>187.3391873916458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24148,7 +24148,7 @@
         <v>116.9244355890811</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.785719435595468</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>119.6906735517087</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>201.6905951919645</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>222.4718172127606</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.249151413314</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>191.3157232315094</v>
+        <v>46.27870614224756</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24209,10 +24209,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>23.79731042315734</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>6.265370983336311</v>
       </c>
       <c r="F23" t="n">
         <v>31.21104665278597</v>
@@ -24221,7 +24221,7 @@
         <v>36.78175548899776</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>310.2259668600466</v>
       </c>
       <c r="I23" t="n">
         <v>100.3706073835471</v>
@@ -24269,10 +24269,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>359.6442759081182</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,25 +24285,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>156.684727711594</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.815431575626</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>97.47735448271879</v>
+        <v>82.89455039396708</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>36.78491415606779</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,19 +24330,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>5.282485126995184</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>143.2996515274307</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>194.0054714360924</v>
       </c>
       <c r="U24" t="n">
         <v>225.8408501344232</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7098837335496</v>
       </c>
       <c r="H25" t="n">
-        <v>150.5730166262226</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>116.9244355890811</v>
+        <v>50.76617850332873</v>
       </c>
       <c r="J25" t="n">
         <v>2.785719435595468</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>119.6906735517087</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>201.6905951919645</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>222.4718172127606</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.249151413314</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,25 +24440,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>7.068842574555049</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>28.45326216302556</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>6.265370983336254</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>36.7817554889977</v>
+        <v>412.4467545779232</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>310.2259668600466</v>
       </c>
       <c r="I26" t="n">
         <v>100.3706073835471</v>
@@ -24494,7 +24494,7 @@
         <v>143.9393584045309</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.5937842564866</v>
       </c>
       <c r="U26" t="n">
         <v>251.1171742728596</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>163.509989547495</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>10.57293956712806</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>30.62534338565587</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24531,16 +24531,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.815431575626</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>97.47735448271879</v>
       </c>
       <c r="I27" t="n">
-        <v>18.96619740793453</v>
+        <v>36.78491415606779</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24573,13 +24573,13 @@
         <v>143.2996515274307</v>
       </c>
       <c r="T27" t="n">
-        <v>194.0054714360924</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24607,22 +24607,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>143.1793760513818</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.7098837335496</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>150.8370677696109</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>116.9244355890811</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2.785719435595468</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>119.6906735517087</v>
       </c>
       <c r="S28" t="n">
         <v>201.6905951919645</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>222.4718172127606</v>
       </c>
       <c r="U28" t="n">
-        <v>286.249151413314</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>88.97122658061187</v>
       </c>
     </row>
     <row r="29">
@@ -24683,13 +24683,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>317.1716843575338</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>36.7817554889977</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>100.3706073835471</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>37.59702914991756</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,7 +24737,7 @@
         <v>251.1171742728596</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24756,28 +24756,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.815431575626</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>97.47735448271879</v>
       </c>
       <c r="I30" t="n">
-        <v>25.92593442293667</v>
+        <v>36.78491415606779</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24804,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>5.282485126995184</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>143.2996515274307</v>
       </c>
       <c r="T30" t="n">
-        <v>194.0054714360924</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8408501344232</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24822,10 +24822,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>144.1130925236796</v>
       </c>
     </row>
     <row r="31">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>155.063898453534</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.7098837335496</v>
       </c>
       <c r="H31" t="n">
         <v>150.8370677696109</v>
@@ -24886,10 +24886,10 @@
         <v>119.6906735517087</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>201.6905951919645</v>
       </c>
       <c r="T31" t="n">
-        <v>222.4718172127606</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.249151413314</v>
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3015420116339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24917,13 +24917,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>34.38716057348194</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>6.265370983336254</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>31.21104665278591</v>
@@ -24968,13 +24968,13 @@
         <v>143.9393584045309</v>
       </c>
       <c r="T32" t="n">
-        <v>210.5937842564866</v>
+        <v>82.91248671303021</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1171742728596</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25005,16 +25005,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>51.68459941080589</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>97.47735448271879</v>
       </c>
       <c r="I33" t="n">
-        <v>36.78491415606779</v>
+        <v>0.7381388108323108</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25053,7 +25053,7 @@
         <v>225.8408501344232</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.7098837335496</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>119.6906735517087</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>201.6905951919645</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.249151413314</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>193.8620161288234</v>
       </c>
       <c r="W34" t="n">
-        <v>120.1350503367957</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7.068842574554935</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25169,10 +25169,10 @@
         <v>412.4467545779232</v>
       </c>
       <c r="H35" t="n">
-        <v>310.2259668600466</v>
+        <v>288.7142034227767</v>
       </c>
       <c r="I35" t="n">
-        <v>97.74388743519175</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,19 +25202,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>143.9393584045309</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.5937842564866</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1171742728596</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25233,7 +25233,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25245,13 +25245,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>135.815431575626</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>97.47735448271879</v>
       </c>
       <c r="I36" t="n">
-        <v>32.27889679430564</v>
+        <v>36.78491415606779</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25284,13 +25284,13 @@
         <v>143.2996515274307</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>194.0054714360924</v>
       </c>
       <c r="U36" t="n">
         <v>225.8408501344232</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>218.2177830606729</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25299,7 +25299,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25312,16 +25312,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>87.31631287105012</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.7098837335496</v>
@@ -25363,13 +25363,13 @@
         <v>201.6905951919645</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>17.98580282185142</v>
       </c>
       <c r="U37" t="n">
-        <v>286.249151413314</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25397,16 +25397,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>6.265370983336311</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>246.1073089964704</v>
+        <v>412.4467545779232</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>310.2259668600466</v>
       </c>
       <c r="I38" t="n">
         <v>100.3706073835471</v>
@@ -25448,16 +25448,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>220.9179467071045</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>10.57293956712812</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>108.0064767773326</v>
       </c>
       <c r="C39" t="n">
-        <v>3.153055599431127</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25485,10 +25485,10 @@
         <v>135.815431575626</v>
       </c>
       <c r="H39" t="n">
-        <v>97.47735448271879</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>36.7849141560678</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,7 +25518,7 @@
         <v>5.282485126995198</v>
       </c>
       <c r="S39" t="n">
-        <v>143.2996515274307</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>194.0054714360924</v>
@@ -25555,22 +25555,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3.543466990333798</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>150.8370677696109</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>116.9244355890811</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.785719435595482</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>119.6906735517087</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>201.6905951919645</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>222.4718172127606</v>
+        <v>92.73232791951875</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.249151413314</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,16 +25628,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>34.38716057348194</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>6.265370983336311</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>31.21104665278597</v>
       </c>
       <c r="G41" t="n">
         <v>36.78175548899776</v>
@@ -25679,19 +25679,19 @@
         <v>143.9393584045309</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.5937842564866</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1171742728596</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>98.46729854985176</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,13 +25704,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25722,10 +25722,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>97.47735448271879</v>
+        <v>28.11167062488043</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>36.7849141560678</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25761,19 +25761,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.8408501344232</v>
       </c>
       <c r="V42" t="n">
-        <v>74.50335268867147</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25786,28 +25786,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>111.7945357661543</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>143.4771647886864</v>
+        <v>166.7098837335496</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>150.8370677696109</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>116.9244355890811</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>2.785719435595482</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>119.6906735517087</v>
       </c>
       <c r="S43" t="n">
-        <v>201.6905951919645</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>222.4718172127606</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25865,13 +25865,13 @@
         <v>7.068842574555106</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>323.6311699652861</v>
       </c>
       <c r="E44" t="n">
-        <v>6.265370983336311</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25880,7 +25880,7 @@
         <v>412.4467545779232</v>
       </c>
       <c r="H44" t="n">
-        <v>310.2259668600466</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>100.3706073835471</v>
@@ -25916,7 +25916,7 @@
         <v>143.9393584045309</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.5937842564866</v>
       </c>
       <c r="U44" t="n">
         <v>251.1171742728596</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>260.0120933045582</v>
+        <v>10.57293956712812</v>
       </c>
     </row>
     <row r="45">
@@ -25947,22 +25947,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.815431575626</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>97.47735448271879</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.7849141560678</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>5.282485126995198</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -25998,19 +25998,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>82.47977154939537</v>
+        <v>1.216495924771039</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26029,22 +26029,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7098837335496</v>
+        <v>62.24252577708467</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>150.8370677696109</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>116.9244355890811</v>
       </c>
       <c r="J46" t="n">
-        <v>2.785719435595482</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26074,22 +26074,22 @@
         <v>201.6905951919645</v>
       </c>
       <c r="T46" t="n">
-        <v>222.4718172127606</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.249151413314</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>71.84646209555339</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>569589.9762838881</v>
+        <v>569589.9762838882</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>569589.976283888</v>
+        <v>569589.9762838881</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>569589.976283888</v>
+        <v>569589.9762838881</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>569589.976283888</v>
+        <v>569589.9762838881</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>569589.9762838882</v>
+        <v>569589.9762838881</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>569589.9762838881</v>
+        <v>569589.976283888</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>569589.976283888</v>
+        <v>569589.9762838882</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>569589.976283888</v>
+        <v>569589.9762838881</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>569589.9762838881</v>
+        <v>569589.976283888</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
@@ -26323,10 +26323,10 @@
         <v>269650.6062669886</v>
       </c>
       <c r="F2" t="n">
+        <v>269650.6062669886</v>
+      </c>
+      <c r="G2" t="n">
         <v>269650.6062669885</v>
-      </c>
-      <c r="G2" t="n">
-        <v>269650.6062669884</v>
       </c>
       <c r="H2" t="n">
         <v>269650.6062669886</v>
@@ -26338,22 +26338,22 @@
         <v>269650.6062669886</v>
       </c>
       <c r="K2" t="n">
-        <v>269650.6062669886</v>
+        <v>269650.6062669885</v>
       </c>
       <c r="L2" t="n">
-        <v>269650.6062669885</v>
+        <v>269650.6062669884</v>
       </c>
       <c r="M2" t="n">
-        <v>269650.6062669886</v>
+        <v>269650.6062669887</v>
       </c>
       <c r="N2" t="n">
-        <v>269650.6062669886</v>
+        <v>269650.6062669887</v>
       </c>
       <c r="O2" t="n">
         <v>269650.6062669886</v>
       </c>
       <c r="P2" t="n">
-        <v>269650.6062669886</v>
+        <v>269650.6062669885</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>302918.4611880541</v>
+        <v>302817.5547799163</v>
       </c>
       <c r="C4" t="n">
-        <v>290683.4357540812</v>
+        <v>290585.8413112365</v>
       </c>
       <c r="D4" t="n">
-        <v>276178.1004301989</v>
+        <v>276074.1919657266</v>
       </c>
       <c r="E4" t="n">
-        <v>19025.77255451922</v>
+        <v>18880.38455189292</v>
       </c>
       <c r="F4" t="n">
-        <v>19025.77255451922</v>
+        <v>18880.38455189292</v>
       </c>
       <c r="G4" t="n">
-        <v>19025.77255451921</v>
+        <v>18880.38455189291</v>
       </c>
       <c r="H4" t="n">
-        <v>19025.77255451921</v>
+        <v>18880.38455189291</v>
       </c>
       <c r="I4" t="n">
-        <v>19025.77255451922</v>
+        <v>18880.38455189291</v>
       </c>
       <c r="J4" t="n">
-        <v>19025.77255451922</v>
+        <v>18880.38455189291</v>
       </c>
       <c r="K4" t="n">
-        <v>19025.77255451922</v>
+        <v>18880.38455189291</v>
       </c>
       <c r="L4" t="n">
-        <v>19025.77255451922</v>
+        <v>18880.38455189291</v>
       </c>
       <c r="M4" t="n">
-        <v>19025.77255451922</v>
+        <v>18880.38455189292</v>
       </c>
       <c r="N4" t="n">
-        <v>19025.77255451922</v>
+        <v>18880.38455189291</v>
       </c>
       <c r="O4" t="n">
-        <v>19025.77255451922</v>
+        <v>18880.38455189291</v>
       </c>
       <c r="P4" t="n">
-        <v>19025.77255451922</v>
+        <v>18880.38455189291</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-378005.6749865012</v>
+        <v>-377904.7685783632</v>
       </c>
       <c r="C6" t="n">
-        <v>86657.9653438289</v>
+        <v>86755.55978667334</v>
       </c>
       <c r="D6" t="n">
-        <v>92531.98717141015</v>
+        <v>92635.89563588242</v>
       </c>
       <c r="E6" t="n">
-        <v>26007.04354975337</v>
+        <v>26152.43155237968</v>
       </c>
       <c r="F6" t="n">
-        <v>212297.1202950972</v>
+        <v>212442.5082977236</v>
       </c>
       <c r="G6" t="n">
-        <v>212297.1202950971</v>
+        <v>212442.5082977235</v>
       </c>
       <c r="H6" t="n">
-        <v>212297.1202950973</v>
+        <v>212442.5082977236</v>
       </c>
       <c r="I6" t="n">
-        <v>212297.1202950972</v>
+        <v>212442.5082977235</v>
       </c>
       <c r="J6" t="n">
-        <v>182963.5154493717</v>
+        <v>183108.9034519981</v>
       </c>
       <c r="K6" t="n">
-        <v>203916.5756840159</v>
+        <v>204061.9636866421</v>
       </c>
       <c r="L6" t="n">
-        <v>201452.0619906169</v>
+        <v>201597.4499932431</v>
       </c>
       <c r="M6" t="n">
-        <v>165412.0262863362</v>
+        <v>165557.4142889626</v>
       </c>
       <c r="N6" t="n">
-        <v>212297.1202950973</v>
+        <v>212442.5082977237</v>
       </c>
       <c r="O6" t="n">
-        <v>212297.1202950973</v>
+        <v>212442.5082977236</v>
       </c>
       <c r="P6" t="n">
-        <v>212297.1202950973</v>
+        <v>212442.5082977235</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>270.6211815385569</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>294.7633856167877</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>314.639873306455</v>
+        <v>321.5159190481664</v>
       </c>
       <c r="H2" t="n">
         <v>319.8727099068761</v>
       </c>
       <c r="I2" t="n">
-        <v>136.685125759028</v>
+        <v>24.57246563410428</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>165.4040387101212</v>
       </c>
       <c r="T2" t="n">
-        <v>214.717169359623</v>
+        <v>102.6045092346993</v>
       </c>
       <c r="U2" t="n">
         <v>251.1925302541847</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>215.6395983452112</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>257.6184405535453</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.42052352494363</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,16 +27464,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>45.53242033047724</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>32.95655226846017</v>
       </c>
       <c r="G3" t="n">
-        <v>136.3194191323308</v>
+        <v>24.20675900740713</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>94.30702260805636</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>36.57392307749219</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>98.28143875168908</v>
+        <v>152.6609993460486</v>
       </c>
       <c r="T3" t="n">
         <v>196.0368949650912</v>
@@ -27515,7 +27515,7 @@
         <v>225.8740072105222</v>
       </c>
       <c r="V3" t="n">
-        <v>120.6879270245016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>55.13416097370413</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.79353122788844</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27549,13 @@
         <v>33.30838789800754</v>
       </c>
       <c r="G4" t="n">
-        <v>167.1324099710516</v>
+        <v>101.0419033600072</v>
       </c>
       <c r="H4" t="n">
-        <v>154.5937101357652</v>
+        <v>42.48105001084151</v>
       </c>
       <c r="I4" t="n">
-        <v>129.630951895051</v>
+        <v>17.51829177012727</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>14.26856482072056</v>
       </c>
       <c r="R4" t="n">
-        <v>26.57632952392133</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S4" t="n">
         <v>209.0540751673406</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>262.2008890706692</v>
+        <v>300.5693304653669</v>
       </c>
       <c r="G5" t="n">
-        <v>306.9464577515498</v>
+        <v>268.578016356852</v>
       </c>
       <c r="H5" t="n">
-        <v>173.80954313977</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I5" t="n">
         <v>131.4600546760548</v>
@@ -27667,10 +27667,10 @@
         <v>162.3156188332455</v>
       </c>
       <c r="T5" t="n">
-        <v>214.1238810212347</v>
+        <v>69.44872435019248</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1816877488572</v>
+        <v>106.506531077815</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>225.0559440074268</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27710,10 +27710,10 @@
         <v>136.2469034849667</v>
       </c>
       <c r="H6" t="n">
-        <v>101.6444647650348</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>51.64041629783932</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>32.07159191921401</v>
       </c>
       <c r="S6" t="n">
         <v>151.3140530013673</v>
@@ -27749,7 +27749,7 @@
         <v>195.7446060180399</v>
       </c>
       <c r="U6" t="n">
-        <v>81.19407977320597</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>110.4146991268375</v>
+        <v>86.95283159945544</v>
       </c>
       <c r="Y6" t="n">
         <v>61.0075391062621</v>
@@ -27792,7 +27792,7 @@
         <v>154.0531901378539</v>
       </c>
       <c r="I7" t="n">
-        <v>127.8026899798254</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>63.31943297892008</v>
+        <v>92.51050743974604</v>
       </c>
       <c r="T7" t="n">
-        <v>125.4057819729781</v>
+        <v>79.34224082093529</v>
       </c>
       <c r="U7" t="n">
-        <v>141.5937255543469</v>
+        <v>286.2688822253891</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27859,10 +27859,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753915</v>
+        <v>378.540124829273</v>
       </c>
       <c r="G8" t="n">
         <v>225.5722460637381</v>
@@ -27871,7 +27871,7 @@
         <v>129.3682389399024</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>195.4337306849999</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27941,10 +27941,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>78.15544652299096</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
         <v>195.4095977920013</v>
@@ -27989,7 +27989,7 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>155.0427046208046</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>64.16939599459968</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098444</v>
       </c>
     </row>
     <row r="10">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>161.6734940126002</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>70.59178955553834</v>
       </c>
       <c r="H10" t="n">
         <v>153.4336708318196</v>
@@ -28032,7 +28032,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>19.2546686291763</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378018</v>
       </c>
       <c r="U10" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>64.61205615750808</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>38.18406822271723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31130,7 +31130,7 @@
         <v>96.75480562798998</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L3" t="n">
         <v>222.3595307837911</v>
@@ -31142,10 +31142,10 @@
         <v>243.454372208257</v>
       </c>
       <c r="O3" t="n">
-        <v>243.6589731628788</v>
+        <v>189.3752746148964</v>
       </c>
       <c r="P3" t="n">
-        <v>168.8020434923345</v>
+        <v>195.5578073177395</v>
       </c>
       <c r="Q3" t="n">
         <v>130.7252153102001</v>
@@ -31373,13 +31373,13 @@
         <v>238.1046497432826</v>
       </c>
       <c r="M6" t="n">
-        <v>277.8568955796269</v>
+        <v>237.7793976178837</v>
       </c>
       <c r="N6" t="n">
         <v>276.0168687543755</v>
       </c>
       <c r="O6" t="n">
-        <v>220.8347924053681</v>
+        <v>260.9122903671113</v>
       </c>
       <c r="P6" t="n">
         <v>209.4051154534499</v>
@@ -34129,7 +34129,7 @@
         <v>110.1052821868588</v>
       </c>
       <c r="J41" t="n">
-        <v>242.3979818171822</v>
+        <v>242.397981817182</v>
       </c>
       <c r="K41" t="n">
         <v>363.2917395493584</v>
@@ -34150,7 +34150,7 @@
         <v>410.6939163497316</v>
       </c>
       <c r="Q41" t="n">
-        <v>308.4140274108332</v>
+        <v>308.4140274108333</v>
       </c>
       <c r="R41" t="n">
         <v>179.4021381796322</v>
@@ -34372,7 +34372,7 @@
         <v>363.2917395493584</v>
       </c>
       <c r="L44" t="n">
-        <v>450.695527364055</v>
+        <v>450.6955273640547</v>
       </c>
       <c r="M44" t="n">
         <v>501.4856139236954</v>
@@ -34381,7 +34381,7 @@
         <v>509.6001754440486</v>
       </c>
       <c r="O44" t="n">
-        <v>481.2009951121485</v>
+        <v>481.2009951121489</v>
       </c>
       <c r="P44" t="n">
         <v>410.6939163497316</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L3" t="n">
         <v>83.8051510039169</v>
@@ -34790,10 +34790,10 @@
         <v>112.1126601249237</v>
       </c>
       <c r="O3" t="n">
-        <v>101.0627287184343</v>
+        <v>46.77903017045198</v>
       </c>
       <c r="P3" t="n">
-        <v>34.82763607800431</v>
+        <v>61.58339990340929</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34857,16 +34857,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>77.4806606383279</v>
+        <v>6.464231591770023</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="M4" t="n">
-        <v>37.3972437415598</v>
-      </c>
       <c r="N4" t="n">
-        <v>3.698987336806027</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O4" t="n">
         <v>112.1126601249237</v>
@@ -35021,13 +35021,13 @@
         <v>99.55026996340837</v>
       </c>
       <c r="M6" t="n">
-        <v>135.7228616576086</v>
+        <v>95.64536369586534</v>
       </c>
       <c r="N6" t="n">
         <v>144.6751566710423</v>
       </c>
       <c r="O6" t="n">
-        <v>78.23854796092367</v>
+        <v>118.3160459226669</v>
       </c>
       <c r="P6" t="n">
         <v>75.43070803911962</v>
@@ -35337,13 +35337,13 @@
         <v>174.6339172880152</v>
       </c>
       <c r="M10" t="n">
-        <v>187.5255871663199</v>
+        <v>99.08507489005493</v>
       </c>
       <c r="N10" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="O10" t="n">
-        <v>75.941511397018</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
         <v>116.8989542469472</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>143.6239860516372</v>
+        <v>17.53295071122832</v>
       </c>
       <c r="K15" t="n">
-        <v>108.9108727717048</v>
+        <v>121.6268171118891</v>
       </c>
       <c r="L15" t="n">
-        <v>289.9367512249437</v>
+        <v>193.2345544893191</v>
       </c>
       <c r="M15" t="n">
         <v>245.0480028971169</v>
@@ -35744,7 +35744,7 @@
         <v>157.822918516629</v>
       </c>
       <c r="Q15" t="n">
-        <v>55.07701074319979</v>
+        <v>265.1542984790489</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>17.53295071122835</v>
+        <v>143.6239860516372</v>
       </c>
       <c r="K18" t="n">
         <v>108.9108727717048</v>
@@ -35975,13 +35975,13 @@
         <v>266.0878811542971</v>
       </c>
       <c r="O18" t="n">
-        <v>233.6901335347847</v>
+        <v>220.9741891946007</v>
       </c>
       <c r="P18" t="n">
         <v>157.822918516629</v>
       </c>
       <c r="Q18" t="n">
-        <v>265.1542984790489</v>
+        <v>151.7792074788244</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7091865954531</v>
+        <v>143.6239860516372</v>
       </c>
       <c r="K21" t="n">
-        <v>108.9108727717048</v>
+        <v>205.6130695073292</v>
       </c>
       <c r="L21" t="n">
         <v>193.2345544893191</v>
       </c>
       <c r="M21" t="n">
-        <v>375.6649990889255</v>
+        <v>245.048002897117</v>
       </c>
       <c r="N21" t="n">
         <v>266.0878811542971</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>143.6239860516372</v>
+        <v>17.53295071122835</v>
       </c>
       <c r="K27" t="n">
-        <v>108.9108727717048</v>
+        <v>331.7041048477383</v>
       </c>
       <c r="L27" t="n">
         <v>193.2345544893191</v>
@@ -36683,7 +36683,7 @@
         <v>245.048002897117</v>
       </c>
       <c r="N27" t="n">
-        <v>362.7900778899217</v>
+        <v>266.0878811542971</v>
       </c>
       <c r="O27" t="n">
         <v>220.9741891946007</v>
@@ -36911,16 +36911,16 @@
         <v>17.53295071122835</v>
       </c>
       <c r="K30" t="n">
-        <v>121.6268171118892</v>
+        <v>108.9108727717048</v>
       </c>
       <c r="L30" t="n">
         <v>193.2345544893191</v>
       </c>
       <c r="M30" t="n">
-        <v>245.048002897117</v>
+        <v>375.6649990889255</v>
       </c>
       <c r="N30" t="n">
-        <v>266.0878811542971</v>
+        <v>358.2641170385221</v>
       </c>
       <c r="O30" t="n">
         <v>220.9741891946007</v>
@@ -36929,7 +36929,7 @@
         <v>157.822918516629</v>
       </c>
       <c r="Q30" t="n">
-        <v>265.1542984790489</v>
+        <v>55.07701074319982</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>57.89573818765545</v>
+        <v>22.48410221496529</v>
       </c>
       <c r="K33" t="n">
         <v>108.9108727717048</v>
       </c>
       <c r="L33" t="n">
-        <v>375.6649990889255</v>
+        <v>193.2345544893191</v>
       </c>
       <c r="M33" t="n">
         <v>245.048002897117</v>
@@ -37163,7 +37163,7 @@
         <v>220.9741891946007</v>
       </c>
       <c r="P33" t="n">
-        <v>157.822918516629</v>
+        <v>375.6649990889255</v>
       </c>
       <c r="Q33" t="n">
         <v>55.07701074319982</v>
@@ -37391,7 +37391,7 @@
         <v>193.2345544893191</v>
       </c>
       <c r="M36" t="n">
-        <v>245.048002897117</v>
+        <v>375.6649990889256</v>
       </c>
       <c r="N36" t="n">
         <v>266.0878811542971</v>
@@ -37400,10 +37400,10 @@
         <v>220.9741891946007</v>
       </c>
       <c r="P36" t="n">
-        <v>170.5388628568138</v>
+        <v>157.822918516629</v>
       </c>
       <c r="Q36" t="n">
-        <v>265.1542984790489</v>
+        <v>147.2532466274251</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>17.53295071122832</v>
+        <v>57.8957381876554</v>
       </c>
       <c r="K39" t="n">
         <v>108.9108727717048</v>
       </c>
       <c r="L39" t="n">
-        <v>193.2345544893191</v>
+        <v>375.6649990889255</v>
       </c>
       <c r="M39" t="n">
         <v>245.0480028971169</v>
@@ -37637,10 +37637,10 @@
         <v>220.9741891946006</v>
       </c>
       <c r="P39" t="n">
-        <v>170.5388628568134</v>
+        <v>157.822918516629</v>
       </c>
       <c r="Q39" t="n">
-        <v>265.1542984790489</v>
+        <v>55.07701074319979</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>61.35207729049594</v>
+        <v>61.35207729049569</v>
       </c>
       <c r="K41" t="n">
         <v>143.2018885043778</v>
@@ -37798,7 +37798,7 @@
         <v>179.4609205944621</v>
       </c>
       <c r="Q41" t="n">
-        <v>86.10833753638369</v>
+        <v>86.10833753638384</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>109.7091865954532</v>
+        <v>17.53295071122832</v>
       </c>
       <c r="K42" t="n">
         <v>108.9108727717048</v>
@@ -37865,19 +37865,19 @@
         <v>193.2345544893191</v>
       </c>
       <c r="M42" t="n">
-        <v>375.6649990889255</v>
+        <v>245.0480028971169</v>
       </c>
       <c r="N42" t="n">
         <v>266.0878811542971</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9741891946006</v>
+        <v>233.690133534785</v>
       </c>
       <c r="P42" t="n">
         <v>157.822918516629</v>
       </c>
       <c r="Q42" t="n">
-        <v>55.07701074319979</v>
+        <v>265.1542984790489</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>143.2018885043778</v>
       </c>
       <c r="L44" t="n">
-        <v>214.9291123940677</v>
+        <v>214.9291123940675</v>
       </c>
       <c r="M44" t="n">
         <v>271.1393806964227</v>
@@ -38029,7 +38029,7 @@
         <v>280.1871118474577</v>
       </c>
       <c r="O44" t="n">
-        <v>251.1027836904618</v>
+        <v>251.1027836904621</v>
       </c>
       <c r="P44" t="n">
         <v>179.4609205944621</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>17.53295071122832</v>
+        <v>143.6239860516372</v>
       </c>
       <c r="K45" t="n">
         <v>108.9108727717048</v>
@@ -38105,16 +38105,16 @@
         <v>245.0480028971169</v>
       </c>
       <c r="N45" t="n">
-        <v>334.1903033360056</v>
+        <v>266.0878811542971</v>
       </c>
       <c r="O45" t="n">
-        <v>375.6649990889255</v>
+        <v>220.9741891946006</v>
       </c>
       <c r="P45" t="n">
         <v>157.822918516629</v>
       </c>
       <c r="Q45" t="n">
-        <v>55.07701074319979</v>
+        <v>151.7792074788244</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
